--- a/src/main/resources/results/tempiAlgoritmi1 (version 1).xlsx
+++ b/src/main/resources/results/tempiAlgoritmi1 (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmi\JetBrains\IntelliJ\IntelliJ IDEA 2021.2.2\IdeaProjects\SCP_DataMiningProject_FP-Growth\src\main\resources\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC5AECB-5A6B-4004-9AEC-B13F8B065DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805A7CE4-4721-47DE-96FA-390BA24CBB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="144" windowWidth="17280" windowHeight="8964" tabRatio="384" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
+    <workbookView xWindow="5760" yWindow="144" windowWidth="17280" windowHeight="8964" tabRatio="384" xr2:uid="{0D229995-9CA3-4D4E-B806-071DE37F7837}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="42">
   <si>
     <t>Apriori</t>
   </si>
@@ -159,18 +159,6 @@
     <t>Deviazione Standard</t>
   </si>
   <si>
-    <t>Colonna1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + mezzora</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>Colonna2</t>
-  </si>
-  <si>
     <t>più mezzora</t>
   </si>
 </sst>
@@ -178,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +207,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -477,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,17 +494,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -535,45 +524,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,35 +566,101 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="75">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1329,57 +1379,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1600,23 +1599,6 @@
         <horizontal style="thin">
           <color auto="1"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1861,116 +1843,118 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FDB05F8E-D085-479B-BE86-A99076E57D14}" name="Tabella3" displayName="Tabella3" ref="C2:O97" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FDB05F8E-D085-479B-BE86-A99076E57D14}" name="Tabella3" displayName="Tabella3" ref="C2:O97" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="C2:O97" xr:uid="{FDB05F8E-D085-479B-BE86-A99076E57D14}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{4C27A6DB-DFA9-46D4-8009-2569D1DE3461}" name="Minimo Supporto" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{1864354D-0C24-4205-B78E-8C0044A2DDD0}" name="Tempo 1" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{76ED14D0-F6AC-4572-A324-CA5070FD20EA}" name="Tempo 2" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{79E82C06-ED34-4F3E-8DE7-75E4DD8D7181}" name="Tempo 3" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{10D0CB2E-65EE-4232-BB99-393575F51164}" name="Tempo 4" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{E9FF0998-F388-4900-B498-1F75D43AF712}" name="Tempo 5" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{BC810F1B-A722-4D1A-9218-FC0B6CB9DC04}" name="Tempo 6" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{B8E7211D-23EE-472D-9B27-D0C78EB0DF10}" name="Tempo 7" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{5E13E25A-2C74-4E68-A976-B5AB7AD01A16}" name="Tempo 8" dataDxfId="66"/>
-    <tableColumn id="10" xr3:uid="{2F54611D-9452-4479-88CE-754E6076F70D}" name="Tempo 9" dataDxfId="65"/>
-    <tableColumn id="11" xr3:uid="{20C689DF-130C-445D-B414-5252D71D26C0}" name="Tempo 10" dataDxfId="64"/>
-    <tableColumn id="12" xr3:uid="{7F55832C-17F3-4868-95EE-40303CBC8FE9}" name="Media Tempi" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{4C27A6DB-DFA9-46D4-8009-2569D1DE3461}" name="Minimo Supporto" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{1864354D-0C24-4205-B78E-8C0044A2DDD0}" name="Tempo 1" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{76ED14D0-F6AC-4572-A324-CA5070FD20EA}" name="Tempo 2" dataDxfId="70"/>
+    <tableColumn id="4" xr3:uid="{79E82C06-ED34-4F3E-8DE7-75E4DD8D7181}" name="Tempo 3" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{10D0CB2E-65EE-4232-BB99-393575F51164}" name="Tempo 4" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{E9FF0998-F388-4900-B498-1F75D43AF712}" name="Tempo 5" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{BC810F1B-A722-4D1A-9218-FC0B6CB9DC04}" name="Tempo 6" dataDxfId="66"/>
+    <tableColumn id="8" xr3:uid="{B8E7211D-23EE-472D-9B27-D0C78EB0DF10}" name="Tempo 7" dataDxfId="65"/>
+    <tableColumn id="9" xr3:uid="{5E13E25A-2C74-4E68-A976-B5AB7AD01A16}" name="Tempo 8" dataDxfId="64"/>
+    <tableColumn id="10" xr3:uid="{2F54611D-9452-4479-88CE-754E6076F70D}" name="Tempo 9" dataDxfId="63"/>
+    <tableColumn id="11" xr3:uid="{20C689DF-130C-445D-B414-5252D71D26C0}" name="Tempo 10" dataDxfId="62"/>
+    <tableColumn id="12" xr3:uid="{7F55832C-17F3-4868-95EE-40303CBC8FE9}" name="Media Tempi" dataDxfId="61">
       <calculatedColumnFormula>(AVERAGE(D3:M3))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{69B7AEE2-69AA-4D27-BAA4-D5AB29E5F793}" name="Variazione….." dataDxfId="62"/>
+    <tableColumn id="13" xr3:uid="{69B7AEE2-69AA-4D27-BAA4-D5AB29E5F793}" name="Deviazione Standard" dataDxfId="1">
+      <calculatedColumnFormula>STDEV(D3:M3)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D690D807-E159-4597-B819-7D34BD4A6B5F}" name="Tabella35" displayName="Tabella35" ref="C98:Q193" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
-  <autoFilter ref="C98:Q193" xr:uid="{D690D807-E159-4597-B819-7D34BD4A6B5F}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{C6B0CF9F-5DEA-4F48-A4E6-A6BD948A9F82}" name="Minimo Supporto" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{A9F4E4B4-9A5C-4697-833F-F72345BCB6E0}" name="Tempo 1" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{0A8537ED-9703-4418-BDD8-63F6E5DF74F0}" name="Tempo 2" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{3521CD42-07AF-4471-998C-DD609FBCFA1C}" name="Tempo 3" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{56AEBAD2-823B-448E-8F2F-6F0EAD45454B}" name="Tempo 4" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{63CA595F-E044-4C31-8EF2-7DF0CE897CFE}" name="Tempo 5" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{E3AB6BAF-3495-40E7-A70E-4A5F22AB461B}" name="Tempo 6" dataDxfId="53"/>
-    <tableColumn id="8" xr3:uid="{58484293-4C45-4D22-AD2C-37DFB74B6C6E}" name="Tempo 7" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{6314C32F-7ABB-4AE2-821F-C54B967E5EF5}" name="Tempo 8" dataDxfId="51"/>
-    <tableColumn id="10" xr3:uid="{D5E1DD53-42CA-44D1-8F6B-60C44898039F}" name="Tempo 9" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{3FF05C1A-9DE0-4CD0-A779-CD141BA5C108}" name="Tempo 10" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{846F7D1C-3342-4E2B-9FCB-2E93CB4A1809}" name="Media Tempi" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D690D807-E159-4597-B819-7D34BD4A6B5F}" name="Tabella35" displayName="Tabella35" ref="C98:O193" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="C98:O193" xr:uid="{D690D807-E159-4597-B819-7D34BD4A6B5F}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{C6B0CF9F-5DEA-4F48-A4E6-A6BD948A9F82}" name="Minimo Supporto" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{A9F4E4B4-9A5C-4697-833F-F72345BCB6E0}" name="Tempo 1" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{0A8537ED-9703-4418-BDD8-63F6E5DF74F0}" name="Tempo 2" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{3521CD42-07AF-4471-998C-DD609FBCFA1C}" name="Tempo 3" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{56AEBAD2-823B-448E-8F2F-6F0EAD45454B}" name="Tempo 4" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{63CA595F-E044-4C31-8EF2-7DF0CE897CFE}" name="Tempo 5" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{E3AB6BAF-3495-40E7-A70E-4A5F22AB461B}" name="Tempo 6" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{58484293-4C45-4D22-AD2C-37DFB74B6C6E}" name="Tempo 7" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{6314C32F-7ABB-4AE2-821F-C54B967E5EF5}" name="Tempo 8" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{D5E1DD53-42CA-44D1-8F6B-60C44898039F}" name="Tempo 9" dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{3FF05C1A-9DE0-4CD0-A779-CD141BA5C108}" name="Tempo 10" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{846F7D1C-3342-4E2B-9FCB-2E93CB4A1809}" name="Media Tempi" dataDxfId="47">
       <calculatedColumnFormula>(AVERAGE(D99:M99))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{F398E84E-4E54-4717-9F42-303EFDF22EB3}" name="Deviazione Standard" dataDxfId="47"/>
-    <tableColumn id="14" xr3:uid="{09E4D8F5-EB8C-4A59-9E67-0FED676CE4BD}" name="Colonna1" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{1630106F-74A3-4976-BD1A-84D391CE32EF}" name="Colonna2" dataDxfId="45"/>
+    <tableColumn id="13" xr3:uid="{F398E84E-4E54-4717-9F42-303EFDF22EB3}" name="Deviazione Standard" dataDxfId="0">
+      <calculatedColumnFormula>STDEV(D99:M99)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0F7B47F-C97C-453C-B3E5-D2117AA23C8A}" name="Tabella352" displayName="Tabella352" ref="C199:O294" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0F7B47F-C97C-453C-B3E5-D2117AA23C8A}" name="Tabella352" displayName="Tabella352" ref="C199:O294" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="C199:O294" xr:uid="{D0F7B47F-C97C-453C-B3E5-D2117AA23C8A}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C85EA9A1-BF92-4F55-8430-C767E27D7777}" name="Minimo Supporto" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{769871D7-28D2-4F2E-88F9-0EC2D0A4A753}" name="Tempo 1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{4DF865CE-5003-44B6-8D0F-2B5FF09AE57E}" name="Tempo 2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{5CCD42AB-7C33-4675-838C-57144D4ECF27}" name="Tempo 3" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{6CE8AD2E-9C3B-482D-B741-56D05ED36F92}" name="Tempo 4" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{E7E05F40-8F57-404E-96E5-F07AEA6BCA96}" name="Tempo 5" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{E36CD468-8080-44BC-87E1-8D2D89FFE311}" name="Tempo 6" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{F9785152-C963-4843-8D70-6D85B78A38D0}" name="Tempo 7" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{D7BA294E-454C-46FE-B7D5-00565DCD357B}" name="Tempo 8" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{2BA3F371-D446-43BA-81E3-FF1238E80EC1}" name="Tempo 9" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{85F5B253-808F-4B44-8F56-A9754976488B}" name="Tempo 10" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{28012456-48BA-42DB-BAD7-707B7AC46272}" name="Media Tempi" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{ECEC44C1-9846-43CB-8789-20EBAC50B22A}" name="Variazione….." dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{C85EA9A1-BF92-4F55-8430-C767E27D7777}" name="Minimo Supporto" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{769871D7-28D2-4F2E-88F9-0EC2D0A4A753}" name="Tempo 1" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{4DF865CE-5003-44B6-8D0F-2B5FF09AE57E}" name="Tempo 2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{5CCD42AB-7C33-4675-838C-57144D4ECF27}" name="Tempo 3" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{6CE8AD2E-9C3B-482D-B741-56D05ED36F92}" name="Tempo 4" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{E7E05F40-8F57-404E-96E5-F07AEA6BCA96}" name="Tempo 5" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{E36CD468-8080-44BC-87E1-8D2D89FFE311}" name="Tempo 6" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{F9785152-C963-4843-8D70-6D85B78A38D0}" name="Tempo 7" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{D7BA294E-454C-46FE-B7D5-00565DCD357B}" name="Tempo 8" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{2BA3F371-D446-43BA-81E3-FF1238E80EC1}" name="Tempo 9" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{85F5B253-808F-4B44-8F56-A9754976488B}" name="Tempo 10" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{28012456-48BA-42DB-BAD7-707B7AC46272}" name="Media Tempi" dataDxfId="33"/>
+    <tableColumn id="13" xr3:uid="{ECEC44C1-9846-43CB-8789-20EBAC50B22A}" name="Variazione….." dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8DD0025-83D2-48D9-A34E-5944A66FCDE7}" name="Tabella3526" displayName="Tabella3526" ref="C297:O392" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D8DD0025-83D2-48D9-A34E-5944A66FCDE7}" name="Tabella3526" displayName="Tabella3526" ref="C297:O392" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="C297:O392" xr:uid="{D8DD0025-83D2-48D9-A34E-5944A66FCDE7}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12D13F53-455E-4682-B898-1B79219B805C}" name="Minimo Supporto" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{3648FF6E-7237-4516-8789-FAE2CEBB6D1C}" name="Tempo 1" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4F0FE81D-7D77-457E-A482-39E8C6B4B8E4}" name="Tempo 2" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{AEE837D1-C184-4784-8C5F-17948C8A5750}" name="Tempo 3" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{D75C7557-88F3-4E1F-8E1D-593AF6E10376}" name="Tempo 4" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{94560F2C-A2D2-4CB5-9734-1A3FE572318D}" name="Tempo 5" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{255404DF-52CC-4D5B-9FAE-E765DCEC8B65}" name="Tempo 6" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{943A27E2-5167-40B3-9328-CCB42ED79D20}" name="Tempo 7" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{1AC21836-3A0A-4F6C-BFE3-BAD8044C2496}" name="Tempo 8" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{BD4ABB18-92F5-4292-BA69-6EC78216E1EE}" name="Tempo 9" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{79BE1283-0BFB-4290-A6AF-0F4028BD7866}" name="Tempo 10" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{8CE8229E-E081-4E28-9B8C-3A64C8152F48}" name="Media Tempi" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{1B09123D-F7D7-49F4-A3B8-1412B3829EB9}" name="Variazione….." dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{12D13F53-455E-4682-B898-1B79219B805C}" name="Minimo Supporto" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{3648FF6E-7237-4516-8789-FAE2CEBB6D1C}" name="Tempo 1" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{4F0FE81D-7D77-457E-A482-39E8C6B4B8E4}" name="Tempo 2" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{AEE837D1-C184-4784-8C5F-17948C8A5750}" name="Tempo 3" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D75C7557-88F3-4E1F-8E1D-593AF6E10376}" name="Tempo 4" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{94560F2C-A2D2-4CB5-9734-1A3FE572318D}" name="Tempo 5" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{255404DF-52CC-4D5B-9FAE-E765DCEC8B65}" name="Tempo 6" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{943A27E2-5167-40B3-9328-CCB42ED79D20}" name="Tempo 7" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{1AC21836-3A0A-4F6C-BFE3-BAD8044C2496}" name="Tempo 8" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{BD4ABB18-92F5-4292-BA69-6EC78216E1EE}" name="Tempo 9" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{79BE1283-0BFB-4290-A6AF-0F4028BD7866}" name="Tempo 10" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{8CE8229E-E081-4E28-9B8C-3A64C8152F48}" name="Media Tempi" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{1B09123D-F7D7-49F4-A3B8-1412B3829EB9}" name="Variazione….." dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8715018B-9F0D-47A4-B9AF-36D4D3DF8D07}" name="Tabella3527" displayName="Tabella3527" ref="C396:O491" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8715018B-9F0D-47A4-B9AF-36D4D3DF8D07}" name="Tabella3527" displayName="Tabella3527" ref="C396:O491" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="C396:O491" xr:uid="{8715018B-9F0D-47A4-B9AF-36D4D3DF8D07}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1BC742CD-5679-4919-B662-D4B073B479B4}" name="Minimo Supporto" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1B810B9B-A898-4C6B-95FB-68972782172A}" name="Tempo 1" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7A4961EC-085F-4081-ABD0-A5D5CCE46FE2}" name="Tempo 2" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{9FFF51A5-3C47-46A1-8982-3AE4451476B5}" name="Tempo 3" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{E0E31250-D8E2-4A1E-AC03-7498E6BCA17C}" name="Tempo 4" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{010CD175-CAAD-495C-8A51-0AA1F33D14A9}" name="Tempo 5" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{2D840CE8-19C4-41A9-8848-34D13B91C7C1}" name="Tempo 6" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{BF5478CB-A8CE-47B5-A413-6AA7852FF024}" name="Tempo 7" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{64B87FFA-48FF-4DEF-ACD0-962B77BE81C1}" name="Tempo 8" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{0C1AEB35-C5D0-4C42-95CC-36606BA4F80A}" name="Tempo 9" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{C6CFA551-5D71-4DDE-B45D-6F8107D7E184}" name="Tempo 10" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{0F4690CC-0476-486B-BE26-920F55889BE1}" name="Media Tempi" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{A114B012-5622-4DDD-88EE-8A52FC1D8906}" name="Variazione….." dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1BC742CD-5679-4919-B662-D4B073B479B4}" name="Minimo Supporto" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1B810B9B-A898-4C6B-95FB-68972782172A}" name="Tempo 1" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{7A4961EC-085F-4081-ABD0-A5D5CCE46FE2}" name="Tempo 2" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9FFF51A5-3C47-46A1-8982-3AE4451476B5}" name="Tempo 3" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E0E31250-D8E2-4A1E-AC03-7498E6BCA17C}" name="Tempo 4" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{010CD175-CAAD-495C-8A51-0AA1F33D14A9}" name="Tempo 5" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{2D840CE8-19C4-41A9-8848-34D13B91C7C1}" name="Tempo 6" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{BF5478CB-A8CE-47B5-A413-6AA7852FF024}" name="Tempo 7" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{64B87FFA-48FF-4DEF-ACD0-962B77BE81C1}" name="Tempo 8" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{0C1AEB35-C5D0-4C42-95CC-36606BA4F80A}" name="Tempo 9" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{C6CFA551-5D71-4DDE-B45D-6F8107D7E184}" name="Tempo 10" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{0F4690CC-0476-486B-BE26-920F55889BE1}" name="Media Tempi" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{A114B012-5622-4DDD-88EE-8A52FC1D8906}" name="Variazione….." dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2273,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5AD1EA-6335-44D6-9470-F3383820DCD1}">
-  <dimension ref="B2:Q491"/>
+  <dimension ref="B2:R491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="I186" sqref="I186"/>
+    <sheetView tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2290,7 +2274,7 @@
     <col min="16" max="16" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="30" customHeight="1">
+    <row r="2" spans="2:18" ht="30" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2331,20 +2315,20 @@
         <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B3" s="36" t="s">
+    <row r="3" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="11">
         <v>5109</v>
       </c>
       <c r="E3" s="3">
@@ -2378,14 +2362,17 @@
         <f>(AVERAGE(D3:M3))</f>
         <v>4780.3</v>
       </c>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B4" s="36"/>
+      <c r="O3" s="37">
+        <f t="shared" ref="O3:O34" si="0">STDEV(D3:M3)</f>
+        <v>502.42236547882038</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B4" s="25"/>
       <c r="C4" s="3">
         <v>30</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="12">
         <v>4092</v>
       </c>
       <c r="E4" s="7">
@@ -2416,13 +2403,16 @@
         <v>4909</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" ref="N4:N34" si="0">(AVERAGE(D4:M4))</f>
+        <f t="shared" ref="N4:N34" si="1">(AVERAGE(D4:M4))</f>
         <v>4423.6000000000004</v>
       </c>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B5" s="36"/>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
+        <v>335.72349734069354</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B5" s="25"/>
       <c r="C5" s="3">
         <v>60</v>
       </c>
@@ -2457,13 +2447,16 @@
         <v>3823</v>
       </c>
       <c r="N5" s="3">
+        <f t="shared" si="1"/>
+        <v>4015.6</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>4015.6</v>
-      </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B6" s="36"/>
+        <v>287.27037206552762</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B6" s="25"/>
       <c r="C6" s="3">
         <v>90</v>
       </c>
@@ -2498,60 +2491,66 @@
         <v>3924</v>
       </c>
       <c r="N6" s="3">
+        <f t="shared" si="1"/>
+        <v>3728.3</v>
+      </c>
+      <c r="O6" s="3">
         <f t="shared" si="0"/>
-        <v>3728.3</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="11">
+        <v>303.61197824416172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B7" s="27"/>
+      <c r="C7" s="8">
         <v>120</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>2687</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>3138</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>2900</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>2971</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>2615</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>3284</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>2514</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>3139</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <v>3159</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="8">
         <v>3095</v>
       </c>
       <c r="N7" s="3">
+        <f t="shared" si="1"/>
+        <v>2950.2</v>
+      </c>
+      <c r="O7" s="3">
         <f t="shared" si="0"/>
-        <v>2950.2</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B8" s="43" t="s">
+        <v>262.83869155392205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="13">
         <v>1514</v>
       </c>
       <c r="E8" s="7">
@@ -2582,17 +2581,20 @@
         <v>1380</v>
       </c>
       <c r="N8" s="3">
+        <f t="shared" si="1"/>
+        <v>1442.6</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="0"/>
-        <v>1442.6</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B9" s="38"/>
+        <v>193.32252843370281</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B9" s="23"/>
       <c r="C9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <v>1248</v>
       </c>
       <c r="E9" s="7">
@@ -2623,13 +2625,16 @@
         <v>1212</v>
       </c>
       <c r="N9" s="3">
+        <f t="shared" si="1"/>
+        <v>1259.0999999999999</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="0"/>
-        <v>1259.0999999999999</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B10" s="38"/>
+        <v>53.38840906247556</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B10" s="23"/>
       <c r="C10" s="3">
         <v>60</v>
       </c>
@@ -2664,13 +2669,16 @@
         <v>1152</v>
       </c>
       <c r="N10" s="3">
+        <f t="shared" si="1"/>
+        <v>1172.7</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="0"/>
-        <v>1172.7</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B11" s="38"/>
+        <v>66.097655026483352</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B11" s="23"/>
       <c r="C11" s="3">
         <v>90</v>
       </c>
@@ -2705,60 +2713,67 @@
         <v>1100</v>
       </c>
       <c r="N11" s="3">
+        <f t="shared" si="1"/>
+        <v>1115.3</v>
+      </c>
+      <c r="O11" s="3">
         <f t="shared" si="0"/>
-        <v>1115.3</v>
-      </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="39"/>
-      <c r="C12" s="11">
+        <v>44.184084615767851</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15.6" customHeight="1" thickBot="1">
+      <c r="B12" s="29"/>
+      <c r="C12" s="8">
         <v>120</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="8">
         <v>969</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>1063</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>1000</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>1020</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>1068</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>923</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>964</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>1001</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <v>1057</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="8">
         <v>957</v>
       </c>
       <c r="N12" s="3">
+        <f t="shared" si="1"/>
+        <v>1002.2</v>
+      </c>
+      <c r="O12" s="3">
         <f t="shared" si="0"/>
-        <v>1002.2</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B13" s="44" t="s">
+        <v>49.698647421791627</v>
+      </c>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="13">
         <v>2970</v>
       </c>
       <c r="E13" s="7">
@@ -2767,13 +2782,13 @@
       <c r="F13" s="7">
         <v>3032</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="16">
         <v>2713</v>
       </c>
       <c r="H13" s="7">
         <v>2902</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="16">
         <v>2644</v>
       </c>
       <c r="J13" s="7">
@@ -2789,17 +2804,20 @@
         <v>3034</v>
       </c>
       <c r="N13" s="3">
+        <f t="shared" si="1"/>
+        <v>2931.7</v>
+      </c>
+      <c r="O13" s="3">
         <f t="shared" si="0"/>
-        <v>2931.7</v>
-      </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B14" s="35"/>
+        <v>141.97578040716039</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B14" s="24"/>
       <c r="C14" s="3">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="14">
         <v>2643</v>
       </c>
       <c r="E14" s="3">
@@ -2830,13 +2848,16 @@
         <v>2526</v>
       </c>
       <c r="N14" s="3">
+        <f t="shared" si="1"/>
+        <v>2705</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="0"/>
-        <v>2705</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B15" s="35"/>
+        <v>159.60367581397784</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B15" s="24"/>
       <c r="C15" s="3">
         <v>60</v>
       </c>
@@ -2871,13 +2892,16 @@
         <v>2381</v>
       </c>
       <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>2320.6</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="0"/>
-        <v>2320.6</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:16" ht="16.05" customHeight="1">
-      <c r="B16" s="35"/>
+        <v>50.990630947699053</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="16.05" customHeight="1">
+      <c r="B16" s="24"/>
       <c r="C16" s="3">
         <v>90</v>
       </c>
@@ -2912,60 +2936,66 @@
         <v>2406</v>
       </c>
       <c r="N16" s="3">
+        <f t="shared" si="1"/>
+        <v>2259.1999999999998</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="0"/>
-        <v>2259.1999999999998</v>
-      </c>
-      <c r="O16" s="3"/>
+        <v>95.100882108305271</v>
+      </c>
     </row>
     <row r="17" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B17" s="45"/>
-      <c r="C17" s="11">
+      <c r="B17" s="31"/>
+      <c r="C17" s="8">
         <v>120</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <v>2168</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>2088</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>2011</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>2098</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>2194</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>2199</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>2158</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="8">
         <v>2132</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <v>2316</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="8">
         <v>2356</v>
       </c>
       <c r="N17" s="3">
+        <f t="shared" si="1"/>
+        <v>2172</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="0"/>
-        <v>2172</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>103.31720304210933</v>
+      </c>
     </row>
     <row r="18" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="13">
         <v>458</v>
       </c>
       <c r="E18" s="7">
@@ -2996,17 +3026,20 @@
         <v>460</v>
       </c>
       <c r="N18" s="3">
+        <f t="shared" si="1"/>
+        <v>462.9</v>
+      </c>
+      <c r="O18" s="3">
         <f t="shared" si="0"/>
-        <v>462.9</v>
-      </c>
-      <c r="O18" s="3"/>
+        <v>5.606543795720615</v>
+      </c>
     </row>
     <row r="19" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B19" s="36"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="7">
         <v>30</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="12">
         <v>455</v>
       </c>
       <c r="E19" s="7">
@@ -3037,13 +3070,16 @@
         <v>454</v>
       </c>
       <c r="N19" s="3">
+        <f t="shared" si="1"/>
+        <v>455.3</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="0"/>
-        <v>455.3</v>
-      </c>
-      <c r="O19" s="3"/>
+        <v>6.3779132776934002</v>
+      </c>
     </row>
     <row r="20" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B20" s="36"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="3">
         <v>60</v>
       </c>
@@ -3078,13 +3114,16 @@
         <v>441</v>
       </c>
       <c r="N20" s="3">
+        <f t="shared" si="1"/>
+        <v>444.5</v>
+      </c>
+      <c r="O20" s="3">
         <f t="shared" si="0"/>
-        <v>444.5</v>
-      </c>
-      <c r="O20" s="3"/>
+        <v>11.673807338558307</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B21" s="36"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="3">
         <v>90</v>
       </c>
@@ -3119,101 +3158,110 @@
         <v>438</v>
       </c>
       <c r="N21" s="3">
+        <f t="shared" si="1"/>
+        <v>438.8</v>
+      </c>
+      <c r="O21" s="3">
         <f t="shared" si="0"/>
-        <v>438.8</v>
-      </c>
-      <c r="O21" s="3"/>
+        <v>3.4896672875473067</v>
+      </c>
     </row>
     <row r="22" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="11">
+      <c r="B22" s="27"/>
+      <c r="C22" s="8">
         <v>120</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>428</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>425</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>423</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>418</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>411</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>451</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>421</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <v>418</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <v>425</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="8">
         <v>425</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="8">
+        <f t="shared" si="1"/>
+        <v>424.5</v>
+      </c>
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
-        <v>424.5</v>
-      </c>
-      <c r="O22" s="11"/>
+        <v>10.522462745109731</v>
+      </c>
     </row>
     <row r="23" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="9">
         <v>1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="15">
         <v>432</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <v>426</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>432</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>438</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
         <v>473</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>457</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="9">
         <v>467</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="9">
         <v>461</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="9">
         <v>460</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="9">
         <v>457</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="9">
+        <f t="shared" si="1"/>
+        <v>450.3</v>
+      </c>
+      <c r="O23" s="9">
         <f t="shared" si="0"/>
-        <v>450.3</v>
-      </c>
-      <c r="O23" s="13"/>
+        <v>16.68032773459003</v>
+      </c>
     </row>
     <row r="24" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B24" s="38"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="7">
         <v>30</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="12">
         <v>402</v>
       </c>
       <c r="E24" s="7">
@@ -3244,13 +3292,16 @@
         <v>406</v>
       </c>
       <c r="N24" s="3">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="0"/>
-        <v>407</v>
-      </c>
-      <c r="O24" s="3"/>
+        <v>5.9814528149754533</v>
+      </c>
     </row>
     <row r="25" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B25" s="38"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="3">
         <v>60</v>
       </c>
@@ -3285,13 +3336,16 @@
         <v>409</v>
       </c>
       <c r="N25" s="3">
+        <f t="shared" si="1"/>
+        <v>397.9</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="0"/>
-        <v>397.9</v>
-      </c>
-      <c r="O25" s="3"/>
+        <v>6.8060430664389875</v>
+      </c>
     </row>
     <row r="26" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B26" s="38"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="3">
         <v>90</v>
       </c>
@@ -3326,101 +3380,110 @@
         <v>384</v>
       </c>
       <c r="N26" s="3">
+        <f t="shared" si="1"/>
+        <v>381.5</v>
+      </c>
+      <c r="O26" s="3">
         <f t="shared" si="0"/>
-        <v>381.5</v>
-      </c>
-      <c r="O26" s="3"/>
+        <v>8.2360994004038908</v>
+      </c>
     </row>
     <row r="27" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B27" s="39"/>
-      <c r="C27" s="11">
+      <c r="B27" s="29"/>
+      <c r="C27" s="8">
         <v>120</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="8">
         <v>381</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>374</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>385</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="8">
         <v>374</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="8">
         <v>385</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>381</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="8">
         <v>362</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>371</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="8">
         <v>371</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="8">
         <v>363</v>
       </c>
-      <c r="N27" s="11">
+      <c r="N27" s="8">
+        <f t="shared" si="1"/>
+        <v>374.7</v>
+      </c>
+      <c r="O27" s="8">
         <f t="shared" si="0"/>
-        <v>374.7</v>
-      </c>
-      <c r="O27" s="11"/>
+        <v>8.2872056676407979</v>
+      </c>
     </row>
     <row r="28" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="15">
         <v>2739</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="9">
         <v>2237</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="9">
         <v>2111</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>2083</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="9">
         <v>2272</v>
       </c>
-      <c r="I28" s="13">
+      <c r="I28" s="9">
         <v>2059</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="9">
         <v>2114</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="9">
         <v>2046</v>
       </c>
-      <c r="L28" s="13">
+      <c r="L28" s="9">
         <v>2014</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="9">
         <v>2018</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="9">
+        <f t="shared" si="1"/>
+        <v>2169.3000000000002</v>
+      </c>
+      <c r="O28" s="9">
         <f t="shared" si="0"/>
-        <v>2169.3000000000002</v>
-      </c>
-      <c r="O28" s="13"/>
+        <v>218.06525526904915</v>
+      </c>
     </row>
     <row r="29" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B29" s="35"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7">
         <v>30</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="12">
         <v>2148</v>
       </c>
       <c r="E29" s="7">
@@ -3451,13 +3514,16 @@
         <v>2113</v>
       </c>
       <c r="N29" s="3">
+        <f t="shared" si="1"/>
+        <v>2133.6</v>
+      </c>
+      <c r="O29" s="3">
         <f t="shared" si="0"/>
-        <v>2133.6</v>
-      </c>
-      <c r="O29" s="3"/>
+        <v>58.19163742898688</v>
+      </c>
     </row>
     <row r="30" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B30" s="35"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="3">
         <v>60</v>
       </c>
@@ -3492,13 +3558,16 @@
         <v>2127</v>
       </c>
       <c r="N30" s="3">
+        <f t="shared" si="1"/>
+        <v>2122.1999999999998</v>
+      </c>
+      <c r="O30" s="3">
         <f t="shared" si="0"/>
-        <v>2122.1999999999998</v>
-      </c>
-      <c r="O30" s="3"/>
+        <v>106.9649994676348</v>
+      </c>
     </row>
     <row r="31" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B31" s="35"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="3">
         <v>90</v>
       </c>
@@ -3533,101 +3602,110 @@
         <v>1885</v>
       </c>
       <c r="N31" s="3">
+        <f t="shared" si="1"/>
+        <v>2110.1</v>
+      </c>
+      <c r="O31" s="3">
         <f t="shared" si="0"/>
-        <v>2110.1</v>
-      </c>
-      <c r="O31" s="3"/>
+        <v>318.87700519862557</v>
+      </c>
     </row>
     <row r="32" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B32" s="45"/>
-      <c r="C32" s="11">
+      <c r="B32" s="31"/>
+      <c r="C32" s="8">
         <v>120</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="16">
         <v>1930</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="16">
         <v>1785</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="8">
         <v>1893</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="8">
         <v>1930</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="8">
         <v>1946</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>1914</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="8">
         <v>1981</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <v>1886</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="8">
         <v>2064</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="8">
         <v>2152</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="8">
+        <f t="shared" si="1"/>
+        <v>1948.1</v>
+      </c>
+      <c r="O32" s="8">
         <f t="shared" si="0"/>
-        <v>1948.1</v>
-      </c>
-      <c r="O32" s="11"/>
+        <v>100.77858017566145</v>
+      </c>
     </row>
     <row r="33" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="15">
         <v>462</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="9">
         <v>430</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="9">
         <v>428</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <v>441</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="9">
         <v>440</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="9">
         <v>457</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="9">
         <v>444</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="9">
         <v>440</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="9">
         <v>446</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="9">
         <v>452</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="9">
+        <f t="shared" si="1"/>
+        <v>444</v>
+      </c>
+      <c r="O33" s="9">
         <f t="shared" si="0"/>
-        <v>444</v>
-      </c>
-      <c r="O33" s="13"/>
+        <v>10.821788720498619</v>
+      </c>
     </row>
     <row r="34" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B34" s="36"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="14">
         <v>462</v>
       </c>
       <c r="E34" s="3">
@@ -3658,13 +3736,16 @@
         <v>434</v>
       </c>
       <c r="N34" s="3">
+        <f t="shared" si="1"/>
+        <v>438.3</v>
+      </c>
+      <c r="O34" s="3">
         <f t="shared" si="0"/>
-        <v>438.3</v>
-      </c>
-      <c r="O34" s="3"/>
+        <v>17.327242519608635</v>
+      </c>
     </row>
     <row r="35" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B35" s="36"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="3">
         <v>60</v>
       </c>
@@ -3699,13 +3780,16 @@
         <v>429</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35:N66" si="1">(AVERAGE(D35:M35))</f>
+        <f t="shared" ref="N35:N66" si="2">(AVERAGE(D35:M35))</f>
         <v>434.1</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35" s="3">
+        <f t="shared" ref="O35:O66" si="3">STDEV(D35:M35)</f>
+        <v>23.004588914195168</v>
+      </c>
     </row>
     <row r="36" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B36" s="36"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="3">
         <v>90</v>
       </c>
@@ -3740,60 +3824,66 @@
         <v>451</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>431.4</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3">
+        <f t="shared" si="3"/>
+        <v>13.467656729282112</v>
+      </c>
     </row>
     <row r="37" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B37" s="41"/>
-      <c r="C37" s="22">
+      <c r="B37" s="27"/>
+      <c r="C37" s="17">
         <v>120</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="17">
         <v>421</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="17">
         <v>404</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F37" s="17">
         <v>389</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="17">
         <v>421</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="17">
         <v>416</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="17">
         <v>424</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="17">
         <v>439</v>
       </c>
-      <c r="K37" s="22">
+      <c r="K37" s="17">
         <v>449</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="17">
         <v>422</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="17">
         <v>430</v>
       </c>
-      <c r="N37" s="22">
-        <f t="shared" si="1"/>
+      <c r="N37" s="17">
+        <f t="shared" si="2"/>
         <v>421.5</v>
       </c>
-      <c r="O37" s="22"/>
+      <c r="O37" s="17">
+        <f t="shared" si="3"/>
+        <v>16.781272630855835</v>
+      </c>
     </row>
     <row r="38" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="11">
         <v>575</v>
       </c>
       <c r="E38" s="3">
@@ -3824,17 +3914,20 @@
         <v>543</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>531.6</v>
       </c>
-      <c r="O38" s="3"/>
+      <c r="O38" s="3">
+        <f t="shared" si="3"/>
+        <v>43.315893926671613</v>
+      </c>
     </row>
     <row r="39" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B39" s="38"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="7">
         <v>30</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="39">
         <v>527</v>
       </c>
       <c r="E39" s="7">
@@ -3865,13 +3958,16 @@
         <v>482</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>511.3</v>
       </c>
-      <c r="O39" s="3"/>
+      <c r="O39" s="3">
+        <f t="shared" si="3"/>
+        <v>35.144305687013116</v>
+      </c>
     </row>
     <row r="40" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B40" s="38"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="3">
         <v>60</v>
       </c>
@@ -3906,13 +4002,16 @@
         <v>524</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>492.3</v>
       </c>
-      <c r="O40" s="3"/>
+      <c r="O40" s="3">
+        <f t="shared" si="3"/>
+        <v>37.47013625690613</v>
+      </c>
     </row>
     <row r="41" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B41" s="38"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="3">
         <v>90</v>
       </c>
@@ -3947,60 +4046,66 @@
         <v>454</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485.5</v>
       </c>
-      <c r="O41" s="3"/>
+      <c r="O41" s="3">
+        <f t="shared" si="3"/>
+        <v>31.099303314811838</v>
+      </c>
     </row>
     <row r="42" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B42" s="47"/>
-      <c r="C42" s="11">
+      <c r="B42" s="34"/>
+      <c r="C42" s="8">
         <v>120</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="8">
         <v>466</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="8">
         <v>455</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="8">
         <v>509</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="8">
         <v>473</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="8">
         <v>462</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="8">
         <v>476</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="8">
         <v>518</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="8">
         <v>438</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="8">
         <v>491</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="8">
         <v>525</v>
       </c>
-      <c r="N42" s="11">
-        <f t="shared" si="1"/>
+      <c r="N42" s="8">
+        <f t="shared" si="2"/>
         <v>481.3</v>
       </c>
-      <c r="O42" s="11"/>
+      <c r="O42" s="8">
+        <f t="shared" si="3"/>
+        <v>28.651352498616887</v>
+      </c>
     </row>
     <row r="43" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="13">
         <v>1704</v>
       </c>
       <c r="E43" s="7">
@@ -4031,13 +4136,16 @@
         <v>1707</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1795.2</v>
       </c>
-      <c r="O43" s="7"/>
+      <c r="O43" s="7">
+        <f t="shared" si="3"/>
+        <v>115.27821418926764</v>
+      </c>
     </row>
     <row r="44" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B44" s="35"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="7">
         <v>30</v>
       </c>
@@ -4072,13 +4180,16 @@
         <v>1683</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1769</v>
       </c>
-      <c r="O44" s="3"/>
+      <c r="O44" s="3">
+        <f t="shared" si="3"/>
+        <v>75.238878838595738</v>
+      </c>
     </row>
     <row r="45" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B45" s="35"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3">
         <v>60</v>
       </c>
@@ -4113,13 +4224,16 @@
         <v>1810</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1748.7</v>
       </c>
-      <c r="O45" s="3"/>
+      <c r="O45" s="3">
+        <f t="shared" si="3"/>
+        <v>110.58636644923479</v>
+      </c>
     </row>
     <row r="46" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B46" s="35"/>
+      <c r="B46" s="24"/>
       <c r="C46" s="3">
         <v>90</v>
       </c>
@@ -4154,60 +4268,66 @@
         <v>1658</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1742.6</v>
       </c>
-      <c r="O46" s="3"/>
+      <c r="O46" s="3">
+        <f t="shared" si="3"/>
+        <v>59.768442063238247</v>
+      </c>
     </row>
     <row r="47" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B47" s="42"/>
-      <c r="C47" s="11">
+      <c r="B47" s="33"/>
+      <c r="C47" s="8">
         <v>120</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="8">
         <v>1764</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="8">
         <v>1787</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="8">
         <v>1771</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="8">
         <v>1847</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="8">
         <v>1657</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="8">
         <v>1710</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="8">
         <v>1803</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="8">
         <v>1620</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="8">
         <v>1602</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="8">
         <v>1810</v>
       </c>
-      <c r="N47" s="11">
-        <f t="shared" si="1"/>
+      <c r="N47" s="8">
+        <f t="shared" si="2"/>
         <v>1737.1</v>
       </c>
-      <c r="O47" s="11"/>
+      <c r="O47" s="8">
+        <f t="shared" si="3"/>
+        <v>85.122721865420743</v>
+      </c>
     </row>
     <row r="48" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="13">
         <v>459</v>
       </c>
       <c r="E48" s="7">
@@ -4238,13 +4358,16 @@
         <v>483</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>459.7</v>
       </c>
-      <c r="O48" s="7"/>
+      <c r="O48" s="7">
+        <f t="shared" si="3"/>
+        <v>15.369883972669845</v>
+      </c>
     </row>
     <row r="49" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B49" s="36"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="7">
         <v>30</v>
       </c>
@@ -4279,13 +4402,16 @@
         <v>450</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>453.1</v>
       </c>
-      <c r="O49" s="3"/>
+      <c r="O49" s="3">
+        <f t="shared" si="3"/>
+        <v>25.159270436339941</v>
+      </c>
     </row>
     <row r="50" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B50" s="36"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="3">
         <v>60</v>
       </c>
@@ -4320,13 +4446,16 @@
         <v>443</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
-      <c r="O50" s="3"/>
+      <c r="O50" s="3">
+        <f t="shared" si="3"/>
+        <v>20.596655607700544</v>
+      </c>
     </row>
     <row r="51" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B51" s="36"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="3">
         <v>90</v>
       </c>
@@ -4361,60 +4490,66 @@
         <v>453</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>443.7</v>
       </c>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3">
+        <f t="shared" si="3"/>
+        <v>21.623289913116057</v>
+      </c>
     </row>
     <row r="52" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B52" s="37"/>
-      <c r="C52" s="11">
+      <c r="B52" s="35"/>
+      <c r="C52" s="8">
         <v>120</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="8">
         <v>457</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="8">
         <v>443</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="8">
         <v>404</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="8">
         <v>435</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="8">
         <v>426</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="8">
         <v>447</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="8">
         <v>410</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="8">
         <v>442</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="8">
         <v>458</v>
       </c>
-      <c r="M52" s="11">
+      <c r="M52" s="8">
         <v>420</v>
       </c>
-      <c r="N52" s="11">
-        <f t="shared" si="1"/>
+      <c r="N52" s="8">
+        <f t="shared" si="2"/>
         <v>434.2</v>
       </c>
-      <c r="O52" s="11"/>
+      <c r="O52" s="8">
+        <f t="shared" si="3"/>
+        <v>18.724909137889622</v>
+      </c>
     </row>
     <row r="53" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="13">
         <v>603</v>
       </c>
       <c r="E53" s="7">
@@ -4445,13 +4580,16 @@
         <v>453</v>
       </c>
       <c r="N53" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>466.4</v>
       </c>
-      <c r="O53" s="7"/>
+      <c r="O53" s="7">
+        <f t="shared" si="3"/>
+        <v>49.049181667202376</v>
+      </c>
     </row>
     <row r="54" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B54" s="38"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="7">
         <v>30</v>
       </c>
@@ -4486,13 +4624,16 @@
         <v>422</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>461.6</v>
       </c>
-      <c r="O54" s="3"/>
+      <c r="O54" s="3">
+        <f t="shared" si="3"/>
+        <v>54.127832232800642</v>
+      </c>
     </row>
     <row r="55" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B55" s="38"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="3">
         <v>60</v>
       </c>
@@ -4527,13 +4668,16 @@
         <v>452</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>442.4</v>
       </c>
-      <c r="O55" s="3"/>
+      <c r="O55" s="3">
+        <f t="shared" si="3"/>
+        <v>15.079050957463396</v>
+      </c>
     </row>
     <row r="56" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B56" s="38"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="3">
         <v>90</v>
       </c>
@@ -4568,60 +4712,66 @@
         <v>453</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>435.4</v>
       </c>
-      <c r="O56" s="3"/>
+      <c r="O56" s="3">
+        <f t="shared" si="3"/>
+        <v>19.721392783810511</v>
+      </c>
     </row>
     <row r="57" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B57" s="39"/>
-      <c r="C57" s="11">
+      <c r="B57" s="29"/>
+      <c r="C57" s="8">
         <v>120</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="8">
         <v>434</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="8">
         <v>438</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="8">
         <v>432</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="8">
         <v>443</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="8">
         <v>409</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="8">
         <v>428</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="8">
         <v>418</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="8">
         <v>434</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="8">
         <v>432</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="8">
         <v>408</v>
       </c>
-      <c r="N57" s="11">
-        <f t="shared" si="1"/>
+      <c r="N57" s="8">
+        <f t="shared" si="2"/>
         <v>427.6</v>
       </c>
-      <c r="O57" s="11"/>
+      <c r="O57" s="8">
+        <f t="shared" si="3"/>
+        <v>11.964763079792077</v>
+      </c>
     </row>
     <row r="58" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="36" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="13">
         <v>1858</v>
       </c>
       <c r="E58" s="7">
@@ -4652,17 +4802,20 @@
         <v>2000</v>
       </c>
       <c r="N58" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1959.8</v>
       </c>
-      <c r="O58" s="7"/>
+      <c r="O58" s="7">
+        <f t="shared" si="3"/>
+        <v>72.936502064009986</v>
+      </c>
     </row>
     <row r="59" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B59" s="35"/>
+      <c r="B59" s="24"/>
       <c r="C59" s="7">
         <v>30</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="16">
         <v>2001</v>
       </c>
       <c r="E59" s="7">
@@ -4693,13 +4846,16 @@
         <v>1815</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1948.1</v>
       </c>
-      <c r="O59" s="3"/>
+      <c r="O59" s="3">
+        <f t="shared" si="3"/>
+        <v>89.936335507093261</v>
+      </c>
     </row>
     <row r="60" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B60" s="35"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="3">
         <v>60</v>
       </c>
@@ -4734,13 +4890,16 @@
         <v>1927</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1929.6</v>
       </c>
-      <c r="O60" s="3"/>
+      <c r="O60" s="3">
+        <f t="shared" si="3"/>
+        <v>72.024995661228616</v>
+      </c>
     </row>
     <row r="61" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B61" s="35"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="3">
         <v>90</v>
       </c>
@@ -4775,60 +4934,66 @@
         <v>1925</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1911.5</v>
       </c>
-      <c r="O61" s="3"/>
+      <c r="O61" s="3">
+        <f t="shared" si="3"/>
+        <v>52.867234128942705</v>
+      </c>
     </row>
     <row r="62" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B62" s="35"/>
-      <c r="C62" s="11">
+      <c r="B62" s="24"/>
+      <c r="C62" s="8">
         <v>120</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="8">
         <v>1964</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="8">
         <v>1937</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="8">
         <v>1859</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="8">
         <v>1961</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="8">
         <v>1839</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="8">
         <v>1976</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="8">
         <v>1797</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="8">
         <v>1836</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="8">
         <v>1789</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="8">
         <v>1797</v>
       </c>
-      <c r="N62" s="11">
-        <f t="shared" si="1"/>
+      <c r="N62" s="8">
+        <f t="shared" si="2"/>
         <v>1875.5</v>
       </c>
-      <c r="O62" s="11"/>
+      <c r="O62" s="8">
+        <f t="shared" si="3"/>
+        <v>76.009136877673384</v>
+      </c>
     </row>
     <row r="63" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="13">
         <v>523</v>
       </c>
       <c r="E63" s="7">
@@ -4859,17 +5024,20 @@
         <v>477</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>483.9</v>
       </c>
-      <c r="O63" s="7"/>
+      <c r="O63" s="7">
+        <f t="shared" si="3"/>
+        <v>16.749461019520734</v>
+      </c>
     </row>
     <row r="64" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B64" s="36"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="7">
         <v>30</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="16">
         <v>466</v>
       </c>
       <c r="E64" s="7">
@@ -4900,13 +5068,16 @@
         <v>463</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>461.7</v>
       </c>
-      <c r="O64" s="3"/>
+      <c r="O64" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9452558635075246</v>
+      </c>
     </row>
     <row r="65" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B65" s="36"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="3">
         <v>60</v>
       </c>
@@ -4941,13 +5112,16 @@
         <v>437</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>454.4</v>
       </c>
-      <c r="O65" s="3"/>
+      <c r="O65" s="3">
+        <f t="shared" si="3"/>
+        <v>11.017158334969039</v>
+      </c>
     </row>
     <row r="66" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B66" s="36"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="3">
         <v>90</v>
       </c>
@@ -4982,60 +5156,66 @@
         <v>443</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>445</v>
       </c>
-      <c r="O66" s="3"/>
+      <c r="O66" s="3">
+        <f t="shared" si="3"/>
+        <v>5.715476066494082</v>
+      </c>
     </row>
     <row r="67" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B67" s="36"/>
-      <c r="C67" s="11">
+      <c r="B67" s="25"/>
+      <c r="C67" s="8">
         <v>120</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="8">
         <v>437</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="8">
         <v>436</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="8">
         <v>435</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="8">
         <v>423</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="8">
         <v>425</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="8">
         <v>434</v>
       </c>
-      <c r="J67" s="11">
+      <c r="J67" s="8">
         <v>443</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="8">
         <v>428</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="8">
         <v>445</v>
       </c>
-      <c r="M67" s="11">
+      <c r="M67" s="8">
         <v>421</v>
       </c>
-      <c r="N67" s="11">
-        <f t="shared" ref="N67:N97" si="2">(AVERAGE(D67:M67))</f>
+      <c r="N67" s="8">
+        <f t="shared" ref="N67:N97" si="4">(AVERAGE(D67:M67))</f>
         <v>432.7</v>
       </c>
-      <c r="O67" s="11"/>
+      <c r="O67" s="8">
+        <f t="shared" ref="O67:O97" si="5">STDEV(D67:M67)</f>
+        <v>8.2063660925189321</v>
+      </c>
     </row>
     <row r="68" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="13">
         <v>495</v>
       </c>
       <c r="E68" s="7">
@@ -5066,17 +5246,20 @@
         <v>499</v>
       </c>
       <c r="N68" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>496.8</v>
       </c>
-      <c r="O68" s="7"/>
+      <c r="O68" s="7">
+        <f t="shared" si="5"/>
+        <v>6.7626424815550719</v>
+      </c>
     </row>
     <row r="69" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B69" s="38"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="7">
         <v>30</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="16">
         <v>481</v>
       </c>
       <c r="E69" s="7">
@@ -5107,13 +5290,16 @@
         <v>479</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>480.3</v>
       </c>
-      <c r="O69" s="3"/>
+      <c r="O69" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7610136794965996</v>
+      </c>
     </row>
     <row r="70" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B70" s="38"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="3">
         <v>60</v>
       </c>
@@ -5148,13 +5334,16 @@
         <v>455</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>455.5</v>
       </c>
-      <c r="O70" s="3"/>
+      <c r="O70" s="3">
+        <f t="shared" si="5"/>
+        <v>9.2766133667171644</v>
+      </c>
     </row>
     <row r="71" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B71" s="38"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="3">
         <v>90</v>
       </c>
@@ -5189,60 +5378,66 @@
         <v>450</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>450.5</v>
       </c>
-      <c r="O71" s="3"/>
+      <c r="O71" s="3">
+        <f t="shared" si="5"/>
+        <v>7.4870258150720677</v>
+      </c>
     </row>
     <row r="72" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B72" s="38"/>
-      <c r="C72" s="11">
+      <c r="B72" s="23"/>
+      <c r="C72" s="8">
         <v>120</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="8">
         <v>436</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="8">
         <v>429</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="8">
         <v>439</v>
       </c>
-      <c r="G72" s="11">
+      <c r="G72" s="8">
         <v>417</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="8">
         <v>432</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="8">
         <v>449</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="8">
         <v>416</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="8">
         <v>427</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="8">
         <v>427</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="8">
         <v>453</v>
       </c>
-      <c r="N72" s="11">
-        <f t="shared" si="2"/>
+      <c r="N72" s="8">
+        <f t="shared" si="4"/>
         <v>432.5</v>
       </c>
-      <c r="O72" s="11"/>
+      <c r="O72" s="8">
+        <f t="shared" si="5"/>
+        <v>12.167808165629319</v>
+      </c>
     </row>
     <row r="73" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="13">
         <v>1810</v>
       </c>
       <c r="E73" s="7">
@@ -5273,17 +5468,20 @@
         <v>1699</v>
       </c>
       <c r="N73" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1811.2</v>
       </c>
-      <c r="O73" s="7"/>
+      <c r="O73" s="7">
+        <f t="shared" si="5"/>
+        <v>107.94525361393978</v>
+      </c>
     </row>
     <row r="74" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B74" s="35"/>
+      <c r="B74" s="24"/>
       <c r="C74" s="7">
         <v>30</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="16">
         <v>1816</v>
       </c>
       <c r="E74" s="7">
@@ -5314,13 +5512,16 @@
         <v>1834</v>
       </c>
       <c r="N74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1808.5</v>
       </c>
-      <c r="O74" s="3"/>
+      <c r="O74" s="3">
+        <f t="shared" si="5"/>
+        <v>61.840745288020081</v>
+      </c>
     </row>
     <row r="75" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B75" s="35"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="3">
         <v>60</v>
       </c>
@@ -5355,13 +5556,16 @@
         <v>1691</v>
       </c>
       <c r="N75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1763.2</v>
       </c>
-      <c r="O75" s="3"/>
+      <c r="O75" s="3">
+        <f t="shared" si="5"/>
+        <v>82.531879362529423</v>
+      </c>
     </row>
     <row r="76" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B76" s="35"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="3">
         <v>90</v>
       </c>
@@ -5396,60 +5600,66 @@
         <v>1764</v>
       </c>
       <c r="N76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1754.9</v>
       </c>
-      <c r="O76" s="3"/>
+      <c r="O76" s="3">
+        <f t="shared" si="5"/>
+        <v>42.098957495669914</v>
+      </c>
     </row>
     <row r="77" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B77" s="35"/>
-      <c r="C77" s="11">
+      <c r="B77" s="24"/>
+      <c r="C77" s="8">
         <v>120</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="8">
         <v>1692</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="8">
         <v>1709</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="8">
         <v>1708</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="8">
         <v>1717</v>
       </c>
-      <c r="H77" s="11">
+      <c r="H77" s="8">
         <v>1687</v>
       </c>
-      <c r="I77" s="11">
+      <c r="I77" s="8">
         <v>1714</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="8">
         <v>1753</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="8">
         <v>1792</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="8">
         <v>1757</v>
       </c>
-      <c r="M77" s="11">
+      <c r="M77" s="8">
         <v>1727</v>
       </c>
-      <c r="N77" s="11">
-        <f t="shared" si="2"/>
+      <c r="N77" s="8">
+        <f t="shared" si="4"/>
         <v>1725.6</v>
       </c>
-      <c r="O77" s="11"/>
+      <c r="O77" s="8">
+        <f t="shared" si="5"/>
+        <v>32.592432659540258</v>
+      </c>
     </row>
     <row r="78" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="13">
         <v>705</v>
       </c>
       <c r="E78" s="7">
@@ -5480,17 +5690,20 @@
         <v>707</v>
       </c>
       <c r="N78" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>705.3</v>
       </c>
-      <c r="O78" s="7"/>
+      <c r="O78" s="7">
+        <f t="shared" si="5"/>
+        <v>10.822302075908905</v>
+      </c>
     </row>
     <row r="79" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B79" s="36"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="7">
         <v>30</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="16">
         <v>699</v>
       </c>
       <c r="E79" s="7">
@@ -5521,13 +5734,16 @@
         <v>698</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>703.4</v>
       </c>
-      <c r="O79" s="3"/>
+      <c r="O79" s="3">
+        <f t="shared" si="5"/>
+        <v>23.099783548769459</v>
+      </c>
     </row>
     <row r="80" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B80" s="36"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="3">
         <v>60</v>
       </c>
@@ -5562,13 +5778,16 @@
         <v>708</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>703</v>
       </c>
-      <c r="O80" s="3"/>
+      <c r="O80" s="3">
+        <f t="shared" si="5"/>
+        <v>22.345767682792491</v>
+      </c>
     </row>
     <row r="81" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B81" s="36"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="3">
         <v>90</v>
       </c>
@@ -5603,60 +5822,66 @@
         <v>679</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>701.3</v>
       </c>
-      <c r="O81" s="3"/>
+      <c r="O81" s="3">
+        <f t="shared" si="5"/>
+        <v>25.625724921995431</v>
+      </c>
     </row>
     <row r="82" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B82" s="36"/>
-      <c r="C82" s="11">
+      <c r="B82" s="25"/>
+      <c r="C82" s="8">
         <v>120</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="8">
         <v>715</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="8">
         <v>688</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="8">
         <v>708</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="8">
         <v>682</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="8">
         <v>685</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="8">
         <v>703</v>
       </c>
-      <c r="J82" s="11">
+      <c r="J82" s="8">
         <v>681</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="8">
         <v>703</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="8">
         <v>680</v>
       </c>
-      <c r="M82" s="11">
+      <c r="M82" s="8">
         <v>685</v>
       </c>
-      <c r="N82" s="11">
-        <f t="shared" si="2"/>
+      <c r="N82" s="8">
+        <f t="shared" si="4"/>
         <v>693</v>
       </c>
-      <c r="O82" s="11"/>
+      <c r="O82" s="8">
+        <f t="shared" si="5"/>
+        <v>12.892719737209145</v>
+      </c>
     </row>
     <row r="83" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="13">
         <v>743</v>
       </c>
       <c r="E83" s="7">
@@ -5687,17 +5912,20 @@
         <v>734</v>
       </c>
       <c r="N83" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>743.5</v>
       </c>
-      <c r="O83" s="7"/>
+      <c r="O83" s="7">
+        <f t="shared" si="5"/>
+        <v>17.290009960796567</v>
+      </c>
     </row>
     <row r="84" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B84" s="38"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="7">
         <v>30</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="16">
         <v>726</v>
       </c>
       <c r="E84" s="7">
@@ -5728,13 +5956,16 @@
         <v>729</v>
       </c>
       <c r="N84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>740.5</v>
       </c>
-      <c r="O84" s="3"/>
+      <c r="O84" s="3">
+        <f t="shared" si="5"/>
+        <v>36.869891359873698</v>
+      </c>
     </row>
     <row r="85" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B85" s="38"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="3">
         <v>60</v>
       </c>
@@ -5769,13 +6000,16 @@
         <v>711</v>
       </c>
       <c r="N85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>737.1</v>
       </c>
-      <c r="O85" s="3"/>
+      <c r="O85" s="3">
+        <f t="shared" si="5"/>
+        <v>23.287812740191427</v>
+      </c>
     </row>
     <row r="86" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B86" s="38"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="3">
         <v>90</v>
       </c>
@@ -5810,60 +6044,66 @@
         <v>767</v>
       </c>
       <c r="N86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>733.8</v>
       </c>
-      <c r="O86" s="3"/>
+      <c r="O86" s="3">
+        <f t="shared" si="5"/>
+        <v>34.518272133916426</v>
+      </c>
     </row>
     <row r="87" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B87" s="38"/>
-      <c r="C87" s="11">
+      <c r="B87" s="23"/>
+      <c r="C87" s="8">
         <v>120</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="8">
         <v>633</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="8">
         <v>694</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="8">
         <v>756</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="8">
         <v>703</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="8">
         <v>746</v>
       </c>
-      <c r="I87" s="11">
+      <c r="I87" s="8">
         <v>700</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J87" s="8">
         <v>744</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="8">
         <v>692</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87" s="8">
         <v>711</v>
       </c>
-      <c r="M87" s="11">
+      <c r="M87" s="8">
         <v>809</v>
       </c>
-      <c r="N87" s="11">
-        <f t="shared" si="2"/>
+      <c r="N87" s="8">
+        <f t="shared" si="4"/>
         <v>718.8</v>
       </c>
-      <c r="O87" s="11"/>
+      <c r="O87" s="8">
+        <f t="shared" si="5"/>
+        <v>47.438381085361669</v>
+      </c>
     </row>
     <row r="88" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="13">
         <v>2304</v>
       </c>
       <c r="E88" s="7">
@@ -5894,17 +6134,20 @@
         <v>2408</v>
       </c>
       <c r="N88" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2415.1999999999998</v>
       </c>
-      <c r="O88" s="7"/>
+      <c r="O88" s="7">
+        <f t="shared" si="5"/>
+        <v>113.01602639547286</v>
+      </c>
     </row>
     <row r="89" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B89" s="35"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="7">
         <v>30</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="16">
         <v>2547</v>
       </c>
       <c r="E89" s="7">
@@ -5935,13 +6178,16 @@
         <v>2257</v>
       </c>
       <c r="N89" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2381.9</v>
       </c>
-      <c r="O89" s="3"/>
+      <c r="O89" s="3">
+        <f t="shared" si="5"/>
+        <v>91.210927707886697</v>
+      </c>
     </row>
     <row r="90" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B90" s="35"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="3">
         <v>60</v>
       </c>
@@ -5976,13 +6222,16 @@
         <v>2589</v>
       </c>
       <c r="N90" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2362.5</v>
       </c>
-      <c r="O90" s="3"/>
+      <c r="O90" s="3">
+        <f t="shared" si="5"/>
+        <v>154.39073806417275</v>
+      </c>
     </row>
     <row r="91" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B91" s="35"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="3">
         <v>90</v>
       </c>
@@ -6017,77 +6266,86 @@
         <v>2473</v>
       </c>
       <c r="N91" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2343.4</v>
       </c>
-      <c r="O91" s="3"/>
+      <c r="O91" s="3">
+        <f t="shared" si="5"/>
+        <v>124.98817721866514</v>
+      </c>
     </row>
     <row r="92" spans="2:15" ht="16.05" customHeight="1" thickBot="1">
-      <c r="B92" s="35"/>
-      <c r="C92" s="11">
+      <c r="B92" s="24"/>
+      <c r="C92" s="8">
         <v>120</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="8">
         <v>2262</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="8">
         <v>2367</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="8">
         <v>2216</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="8">
         <v>2315</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="8">
         <v>2411</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="8">
         <v>2221</v>
       </c>
-      <c r="J92" s="11">
+      <c r="J92" s="8">
         <v>2318</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="8">
         <v>2399</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92" s="8">
         <v>2339</v>
       </c>
-      <c r="M92" s="11">
+      <c r="M92" s="8">
         <v>2177</v>
       </c>
-      <c r="N92" s="11">
-        <f t="shared" si="2"/>
+      <c r="N92" s="8">
+        <f t="shared" si="4"/>
         <v>2302.5</v>
       </c>
-      <c r="O92" s="11"/>
+      <c r="O92" s="8">
+        <f t="shared" si="5"/>
+        <v>80.614652652121634</v>
+      </c>
     </row>
     <row r="93" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B93" s="49" t="s">
+      <c r="B93" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="18">
         <v>1</v>
       </c>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
-      <c r="N93" s="24" t="e">
-        <f t="shared" si="2"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O93" s="24"/>
+      <c r="O93" s="18" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="94" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B94" s="49"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="4">
         <v>30</v>
       </c>
@@ -6102,13 +6360,16 @@
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O94" s="4"/>
+      <c r="O94" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="95" spans="2:15" ht="16.05" customHeight="1">
-      <c r="B95" s="49"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="4">
         <v>60</v>
       </c>
@@ -6123,10 +6384,13 @@
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O95" s="4"/>
+      <c r="O95" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="96" spans="2:15">
       <c r="C96" s="5">
@@ -6143,12 +6407,15 @@
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
       <c r="N96" s="5" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O96" s="5"/>
-    </row>
-    <row r="97" spans="2:17">
+      <c r="O96" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15">
       <c r="B97">
         <f ca="1">S10+B97</f>
         <v>0</v>
@@ -6167,12 +6434,15 @@
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="2:17" ht="18">
+      <c r="O97" s="4" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" ht="18">
       <c r="B98" s="6" t="s">
         <v>34</v>
       </c>
@@ -6215,21 +6485,15 @@
       <c r="O98" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P98" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B99" s="36" t="s">
+    </row>
+    <row r="99" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B99" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="3">
         <v>500</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="11">
         <v>1066161</v>
       </c>
       <c r="E99" s="3">
@@ -6244,66 +6508,68 @@
       <c r="H99" s="3">
         <v>155796</v>
       </c>
-      <c r="I99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3">
-        <f t="shared" ref="N99:N130" si="3">(AVERAGE(D99:M99))</f>
+        <f t="shared" ref="N99:N130" si="6">(AVERAGE(D99:M99))</f>
         <v>903950.6</v>
       </c>
-      <c r="O99" s="3"/>
-      <c r="P99" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q99" s="7"/>
-    </row>
-    <row r="100" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B100" s="36"/>
+      <c r="O99" s="3">
+        <f t="shared" ref="O99:O130" si="7">STDEV(D99:M99)</f>
+        <v>735339.69601354992</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B100" s="25"/>
       <c r="C100" s="3">
         <v>750</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="11">
         <v>656248</v>
       </c>
-      <c r="E100" s="8">
+      <c r="E100" s="11">
         <v>631990</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="11">
         <v>649285</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="11">
         <v>629673</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="11">
         <v>644918</v>
       </c>
-      <c r="I100" s="8">
+      <c r="I100" s="11">
         <v>651373</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="11">
         <v>623379</v>
       </c>
-      <c r="K100" s="8">
+      <c r="K100" s="11">
         <v>659995</v>
       </c>
-      <c r="L100" s="8">
+      <c r="L100" s="11">
         <v>593515</v>
       </c>
-      <c r="M100" s="26">
+      <c r="M100" s="3">
         <v>667833</v>
       </c>
       <c r="N100" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>640820.9</v>
       </c>
-      <c r="O100" s="7"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-    </row>
-    <row r="101" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B101" s="36"/>
+      <c r="O100" s="7">
+        <f t="shared" si="7"/>
+        <v>21805.701657288322</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B101" s="25"/>
       <c r="C101" s="3">
         <v>1000</v>
       </c>
@@ -6338,15 +6604,16 @@
         <v>421848</v>
       </c>
       <c r="N101" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>441733.4</v>
       </c>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-    </row>
-    <row r="102" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B102" s="36"/>
+      <c r="O101" s="3">
+        <f t="shared" si="7"/>
+        <v>69784.421157351841</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B102" s="25"/>
       <c r="C102" s="3">
         <v>1500</v>
       </c>
@@ -6381,171 +6648,176 @@
         <v>238870</v>
       </c>
       <c r="N102" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>228098.5</v>
       </c>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-    </row>
-    <row r="103" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B103" s="41"/>
-      <c r="C103" s="11">
+      <c r="O102" s="3">
+        <f t="shared" si="7"/>
+        <v>5450.0538886224685</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B103" s="27"/>
+      <c r="C103" s="8">
         <v>2000</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="40">
         <v>99886</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="8">
         <v>108854</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="8">
         <v>99192</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="8">
         <v>110225</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="8">
         <v>98929</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103" s="8">
         <v>100925</v>
       </c>
-      <c r="J103" s="11">
+      <c r="J103" s="8">
         <v>107190</v>
       </c>
-      <c r="K103" s="11">
+      <c r="K103" s="8">
         <v>106034</v>
       </c>
-      <c r="L103" s="11">
+      <c r="L103" s="8">
         <v>107005</v>
       </c>
-      <c r="M103" s="11">
+      <c r="M103" s="8">
         <v>107833</v>
       </c>
-      <c r="N103" s="11">
-        <f t="shared" si="3"/>
+      <c r="N103" s="8">
+        <f t="shared" si="6"/>
         <v>104607.3</v>
       </c>
-      <c r="O103" s="11"/>
-      <c r="P103" s="3"/>
-      <c r="Q103" s="3"/>
-    </row>
-    <row r="104" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B104" s="43" t="s">
+      <c r="O103" s="8">
+        <f t="shared" si="7"/>
+        <v>4369.9924243514297</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B104" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="3">
         <v>500</v>
       </c>
-      <c r="D104" s="28">
+      <c r="D104" s="7">
         <v>141200</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E104" s="7">
         <v>124284</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F104" s="7">
         <v>159359</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="7">
         <v>118354</v>
       </c>
-      <c r="H104" s="28">
+      <c r="H104" s="7">
         <v>155223</v>
       </c>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="7"/>
       <c r="N104" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>139684</v>
       </c>
-      <c r="O104" s="7"/>
-      <c r="P104" s="3"/>
-      <c r="Q104" s="3"/>
-    </row>
-    <row r="105" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B105" s="38"/>
+      <c r="O104" s="7">
+        <f t="shared" si="7"/>
+        <v>18186.487442604193</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B105" s="23"/>
       <c r="C105" s="3">
         <v>750</v>
       </c>
-      <c r="D105" s="26">
+      <c r="D105" s="3">
         <v>81468</v>
       </c>
-      <c r="E105" s="26">
+      <c r="E105" s="3">
         <v>78039</v>
       </c>
-      <c r="F105" s="26">
+      <c r="F105" s="3">
         <v>81911</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G105" s="3">
         <v>63546</v>
       </c>
-      <c r="H105" s="26">
+      <c r="H105" s="3">
         <v>80400</v>
       </c>
-      <c r="I105" s="26">
+      <c r="I105" s="3">
         <v>62091</v>
       </c>
-      <c r="J105" s="26"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="26"/>
-      <c r="M105" s="26"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
       <c r="N105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>74575.833333333328</v>
       </c>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="3"/>
-    </row>
-    <row r="106" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B106" s="38"/>
+      <c r="O105" s="3">
+        <f t="shared" si="7"/>
+        <v>9216.8254712057133</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B106" s="23"/>
       <c r="C106" s="3">
         <v>1000</v>
       </c>
-      <c r="D106" s="26">
+      <c r="D106" s="3">
         <v>39275</v>
       </c>
-      <c r="E106" s="26">
+      <c r="E106" s="3">
         <v>38578</v>
       </c>
-      <c r="F106" s="26">
+      <c r="F106" s="3">
         <v>39007</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="3">
         <v>42034</v>
       </c>
-      <c r="H106" s="26">
+      <c r="H106" s="3">
         <v>39827</v>
       </c>
-      <c r="I106" s="26">
+      <c r="I106" s="3">
         <v>41897</v>
       </c>
-      <c r="J106" s="26">
+      <c r="J106" s="3">
         <v>39020</v>
       </c>
-      <c r="K106" s="26">
+      <c r="K106" s="3">
         <v>42189</v>
       </c>
-      <c r="L106" s="26">
+      <c r="L106" s="3">
         <v>40345</v>
       </c>
-      <c r="M106" s="26">
+      <c r="M106" s="3">
         <v>40109</v>
       </c>
       <c r="N106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>40228.1</v>
       </c>
-      <c r="O106" s="3"/>
-      <c r="P106" s="3"/>
-      <c r="Q106" s="3"/>
-    </row>
-    <row r="107" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B107" s="38"/>
+      <c r="O106" s="3">
+        <f t="shared" si="7"/>
+        <v>1360.6445735590009</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B107" s="23"/>
       <c r="C107" s="3">
         <v>1500</v>
       </c>
@@ -6580,159 +6852,164 @@
         <v>16818</v>
       </c>
       <c r="N107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17588.7</v>
       </c>
-      <c r="O107" s="3"/>
-      <c r="P107" s="3"/>
-      <c r="Q107" s="3"/>
-    </row>
-    <row r="108" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B108" s="39"/>
-      <c r="C108" s="11">
+      <c r="O107" s="3">
+        <f t="shared" si="7"/>
+        <v>2298.277328299996</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B108" s="29"/>
+      <c r="C108" s="8">
         <v>2000</v>
       </c>
-      <c r="D108" s="27">
+      <c r="D108" s="8">
         <v>9649</v>
       </c>
-      <c r="E108" s="30">
+      <c r="E108" s="41">
         <v>7818</v>
       </c>
-      <c r="F108" s="27">
+      <c r="F108" s="8">
         <v>7286</v>
       </c>
-      <c r="G108" s="27">
+      <c r="G108" s="8">
         <v>9564</v>
       </c>
-      <c r="H108" s="27">
+      <c r="H108" s="8">
         <v>7922</v>
       </c>
-      <c r="I108" s="27">
+      <c r="I108" s="8">
         <v>9869</v>
       </c>
-      <c r="J108" s="27">
+      <c r="J108" s="8">
         <v>7546</v>
       </c>
-      <c r="K108" s="27">
+      <c r="K108" s="8">
         <v>7828</v>
       </c>
-      <c r="L108" s="27">
+      <c r="L108" s="8">
         <v>7770</v>
       </c>
-      <c r="M108" s="27">
+      <c r="M108" s="8">
         <v>10146</v>
       </c>
-      <c r="N108" s="11">
-        <f t="shared" si="3"/>
+      <c r="N108" s="8">
+        <f t="shared" si="6"/>
         <v>8539.7999999999993</v>
       </c>
-      <c r="O108" s="11"/>
-      <c r="P108" s="3"/>
-      <c r="Q108" s="3"/>
-    </row>
-    <row r="109" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B109" s="44" t="s">
+      <c r="O108" s="8">
+        <f t="shared" si="7"/>
+        <v>1114.9258869240305</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B109" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C109" s="7">
         <v>500</v>
       </c>
-      <c r="D109" s="25">
+      <c r="D109" s="42">
         <v>359823</v>
       </c>
-      <c r="E109" s="25">
+      <c r="E109" s="42">
         <v>352468</v>
       </c>
-      <c r="F109" s="25">
+      <c r="F109" s="42">
         <v>311018</v>
       </c>
-      <c r="G109" s="25">
+      <c r="G109" s="42">
         <v>342602</v>
       </c>
-      <c r="H109" s="25">
+      <c r="H109" s="42">
         <v>344833</v>
       </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-      <c r="M109" s="25"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42"/>
+      <c r="M109" s="42"/>
       <c r="N109" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>342148.8</v>
       </c>
-      <c r="O109" s="7"/>
-      <c r="P109" s="3"/>
-      <c r="Q109" s="3"/>
-    </row>
-    <row r="110" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B110" s="35"/>
+      <c r="O109" s="7">
+        <f t="shared" si="7"/>
+        <v>18677.52836164357</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B110" s="24"/>
       <c r="C110" s="3">
         <v>750</v>
       </c>
-      <c r="D110" s="50">
+      <c r="D110" s="43">
         <v>180868</v>
       </c>
-      <c r="E110" s="33">
+      <c r="E110" s="43">
         <v>89008</v>
       </c>
-      <c r="F110" s="33">
+      <c r="F110" s="43">
         <v>137055</v>
       </c>
-      <c r="G110" s="33">
+      <c r="G110" s="43">
         <v>177029</v>
       </c>
-      <c r="H110" s="33">
+      <c r="H110" s="43">
         <v>177073</v>
       </c>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="33"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
+      <c r="K110" s="44"/>
+      <c r="L110" s="44"/>
+      <c r="M110" s="44"/>
       <c r="N110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>152206.6</v>
       </c>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-    </row>
-    <row r="111" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B111" s="35"/>
+      <c r="O110" s="3">
+        <f t="shared" si="7"/>
+        <v>39621.961287901933</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B111" s="24"/>
       <c r="C111" s="3">
         <v>1000</v>
       </c>
-      <c r="D111" s="8">
+      <c r="D111" s="11">
         <v>87210</v>
       </c>
-      <c r="E111" s="8">
+      <c r="E111" s="11">
         <v>90852</v>
       </c>
-      <c r="F111" s="8">
+      <c r="F111" s="11">
         <v>94497</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="11">
         <v>89042</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="11">
         <v>93147</v>
       </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8"/>
-      <c r="M111" s="8"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
       <c r="N111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90949.6</v>
       </c>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-    </row>
-    <row r="112" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B112" s="35"/>
+      <c r="O111" s="3">
+        <f t="shared" si="7"/>
+        <v>2959.9698140352716</v>
+      </c>
+    </row>
+    <row r="112" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B112" s="24"/>
       <c r="C112" s="3">
         <v>1500</v>
       </c>
@@ -6757,73 +7034,76 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27791.4</v>
       </c>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-    </row>
-    <row r="113" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B113" s="45"/>
-      <c r="C113" s="11">
+      <c r="O112" s="3">
+        <f t="shared" si="7"/>
+        <v>989.73294377826994</v>
+      </c>
+    </row>
+    <row r="113" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B113" s="31"/>
+      <c r="C113" s="8">
         <v>2000</v>
       </c>
-      <c r="D113" s="30">
+      <c r="D113" s="41">
         <v>11625</v>
       </c>
-      <c r="E113" s="31">
+      <c r="E113" s="45">
         <v>13238</v>
       </c>
-      <c r="F113" s="31">
+      <c r="F113" s="45">
         <v>11325</v>
       </c>
-      <c r="G113" s="31">
+      <c r="G113" s="45">
         <v>10873</v>
       </c>
-      <c r="H113" s="32">
+      <c r="H113" s="46">
         <v>11572</v>
       </c>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="32"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="46"/>
       <c r="N113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11726.6</v>
       </c>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="Q113" s="3"/>
-    </row>
-    <row r="114" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B114" s="46" t="s">
+      <c r="O113" s="3">
+        <f t="shared" si="7"/>
+        <v>895.61001557597604</v>
+      </c>
+    </row>
+    <row r="114" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B114" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C114" s="3">
         <v>500</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
+      <c r="K114" s="47"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="47"/>
       <c r="N114" s="3" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="Q114" s="3"/>
-    </row>
-    <row r="115" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B115" s="36"/>
+      <c r="O114" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B115" s="25"/>
       <c r="C115" s="3">
         <v>750</v>
       </c>
@@ -6848,48 +7128,50 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18223.2</v>
       </c>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="Q115" s="3"/>
-    </row>
-    <row r="116" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B116" s="36"/>
+      <c r="O115" s="3">
+        <f t="shared" si="7"/>
+        <v>3810.5251212923381</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B116" s="25"/>
       <c r="C116" s="3">
         <v>1000</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="11">
         <v>12140</v>
       </c>
-      <c r="E116" s="8">
+      <c r="E116" s="11">
         <v>14696</v>
       </c>
-      <c r="F116" s="8">
+      <c r="F116" s="11">
         <v>14860</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="11">
         <v>14304</v>
       </c>
-      <c r="H116" s="8">
+      <c r="H116" s="11">
         <v>15137</v>
       </c>
-      <c r="I116" s="8"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="8"/>
-      <c r="L116" s="8"/>
-      <c r="M116" s="8"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
       <c r="N116" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14227.4</v>
       </c>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="Q116" s="3"/>
-    </row>
-    <row r="117" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B117" s="36"/>
+      <c r="O116" s="3">
+        <f t="shared" si="7"/>
+        <v>1205.2227180069249</v>
+      </c>
+    </row>
+    <row r="117" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B117" s="25"/>
       <c r="C117" s="3">
         <v>1500</v>
       </c>
@@ -6914,73 +7196,76 @@
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9826.7999999999993</v>
       </c>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="Q117" s="3"/>
-    </row>
-    <row r="118" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B118" s="41"/>
-      <c r="C118" s="11">
+      <c r="O117" s="3">
+        <f t="shared" si="7"/>
+        <v>370.73535035116356</v>
+      </c>
+    </row>
+    <row r="118" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B118" s="27"/>
+      <c r="C118" s="8">
         <v>2000</v>
       </c>
-      <c r="D118" s="30">
+      <c r="D118" s="41">
         <v>8951</v>
       </c>
-      <c r="E118" s="31">
+      <c r="E118" s="45">
         <v>8054</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F118" s="45">
         <v>7818</v>
       </c>
-      <c r="G118" s="31">
+      <c r="G118" s="45">
         <v>9668</v>
       </c>
-      <c r="H118" s="31">
+      <c r="H118" s="45">
         <v>8074</v>
       </c>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="31"/>
-      <c r="L118" s="31"/>
-      <c r="M118" s="32"/>
-      <c r="N118" s="11">
-        <f t="shared" si="3"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="8">
+        <f t="shared" si="6"/>
         <v>8513</v>
       </c>
-      <c r="O118" s="11"/>
-      <c r="P118" s="3"/>
-      <c r="Q118" s="3"/>
-    </row>
-    <row r="119" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B119" s="48" t="s">
+      <c r="O118" s="8">
+        <f t="shared" si="7"/>
+        <v>776.57839269451733</v>
+      </c>
+    </row>
+    <row r="119" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B119" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="3">
         <v>500</v>
       </c>
-      <c r="D119" s="34"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="34"/>
-      <c r="I119" s="34"/>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="25"/>
-      <c r="N119" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="42"/>
+      <c r="N119" s="9" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O119" s="13"/>
-      <c r="P119" s="3"/>
-      <c r="Q119" s="3"/>
-    </row>
-    <row r="120" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B120" s="38"/>
+      <c r="O119" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B120" s="23"/>
       <c r="C120" s="3">
         <v>750</v>
       </c>
@@ -7005,48 +7290,50 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4281.6000000000004</v>
       </c>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-    </row>
-    <row r="121" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B121" s="38"/>
+      <c r="O120" s="3">
+        <f t="shared" si="7"/>
+        <v>68.42733371979358</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B121" s="23"/>
       <c r="C121" s="3">
         <v>1000</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="11">
         <v>3443</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E121" s="11">
         <v>3501</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F121" s="11">
         <v>3434</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="11">
         <v>3445</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H121" s="11">
         <v>3482</v>
       </c>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
       <c r="N121" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3461</v>
       </c>
-      <c r="O121" s="3"/>
-      <c r="P121" s="3"/>
-      <c r="Q121" s="3"/>
-    </row>
-    <row r="122" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B122" s="38"/>
+      <c r="O121" s="3">
+        <f t="shared" si="7"/>
+        <v>28.939592256975562</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B122" s="23"/>
       <c r="C122" s="3">
         <v>1500</v>
       </c>
@@ -7071,73 +7358,76 @@
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2486.1999999999998</v>
       </c>
-      <c r="O122" s="3"/>
-      <c r="P122" s="3"/>
-      <c r="Q122" s="3"/>
-    </row>
-    <row r="123" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B123" s="39"/>
-      <c r="C123" s="11">
+      <c r="O122" s="3">
+        <f t="shared" si="7"/>
+        <v>28.331960751066983</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B123" s="29"/>
+      <c r="C123" s="8">
         <v>2000</v>
       </c>
-      <c r="D123" s="30">
+      <c r="D123" s="41">
         <v>2198</v>
       </c>
-      <c r="E123" s="31">
+      <c r="E123" s="45">
         <v>2255</v>
       </c>
-      <c r="F123" s="31">
+      <c r="F123" s="45">
         <v>2260</v>
       </c>
-      <c r="G123" s="31">
+      <c r="G123" s="45">
         <v>2166</v>
       </c>
-      <c r="H123" s="31">
+      <c r="H123" s="45">
         <v>2221</v>
       </c>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
-      <c r="K123" s="31"/>
-      <c r="L123" s="31"/>
-      <c r="M123" s="32"/>
-      <c r="N123" s="11">
-        <f t="shared" si="3"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="8">
+        <f t="shared" si="6"/>
         <v>2220</v>
       </c>
-      <c r="O123" s="11"/>
-      <c r="P123" s="3"/>
-      <c r="Q123" s="3"/>
-    </row>
-    <row r="124" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B124" s="44" t="s">
+      <c r="O123" s="8">
+        <f t="shared" si="7"/>
+        <v>39.45250308915773</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B124" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C124" s="3">
         <v>500</v>
       </c>
-      <c r="D124" s="34"/>
-      <c r="E124" s="34"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="34"/>
-      <c r="I124" s="34"/>
-      <c r="J124" s="34"/>
-      <c r="K124" s="34"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="13" t="e">
-        <f t="shared" si="3"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
+      <c r="K124" s="47"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="47"/>
+      <c r="N124" s="9" t="e">
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O124" s="13"/>
-      <c r="P124" s="3"/>
-      <c r="Q124" s="3"/>
-    </row>
-    <row r="125" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B125" s="35"/>
+      <c r="O124" s="9" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B125" s="24"/>
       <c r="C125" s="3">
         <v>750</v>
       </c>
@@ -7162,15 +7452,16 @@
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4123.2</v>
       </c>
-      <c r="O125" s="3"/>
-      <c r="P125" s="3"/>
-      <c r="Q125" s="3"/>
-    </row>
-    <row r="126" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B126" s="35"/>
+      <c r="O125" s="3">
+        <f t="shared" si="7"/>
+        <v>180.78633797939492</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B126" s="24"/>
       <c r="C126" s="3">
         <v>1000</v>
       </c>
@@ -7195,15 +7486,16 @@
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3343</v>
       </c>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-    </row>
-    <row r="127" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B127" s="35"/>
+      <c r="O126" s="3">
+        <f t="shared" si="7"/>
+        <v>109.73376873141649</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B127" s="24"/>
       <c r="C127" s="3">
         <v>1500</v>
       </c>
@@ -7228,83 +7520,86 @@
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2839</v>
       </c>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-    </row>
-    <row r="128" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B128" s="45"/>
-      <c r="C128" s="11">
+      <c r="O127" s="3">
+        <f t="shared" si="7"/>
+        <v>55.321785943694913</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B128" s="31"/>
+      <c r="C128" s="8">
         <v>2000</v>
       </c>
-      <c r="D128" s="11">
+      <c r="D128" s="8">
         <v>2478</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="8">
         <v>2483</v>
       </c>
-      <c r="F128" s="11">
+      <c r="F128" s="8">
         <v>2450</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="8">
         <v>2435</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="8">
         <v>2365</v>
       </c>
-      <c r="I128" s="11"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="11"/>
-      <c r="L128" s="11"/>
-      <c r="M128" s="11"/>
-      <c r="N128" s="11">
-        <f t="shared" si="3"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8">
+        <f t="shared" si="6"/>
         <v>2442.1999999999998</v>
       </c>
-      <c r="O128" s="11"/>
-      <c r="P128" s="3"/>
-      <c r="Q128" s="3"/>
-    </row>
-    <row r="129" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B129" s="46" t="s">
+      <c r="O128" s="8">
+        <f t="shared" si="7"/>
+        <v>47.483681407405641</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B129" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C129" s="3">
         <v>500</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="15">
         <v>23004</v>
       </c>
-      <c r="E129" s="13">
+      <c r="E129" s="9">
         <v>20792</v>
       </c>
-      <c r="F129" s="13">
+      <c r="F129" s="9">
         <v>21862</v>
       </c>
-      <c r="G129" s="13">
+      <c r="G129" s="9">
         <v>20497</v>
       </c>
-      <c r="H129" s="13">
+      <c r="H129" s="9">
         <v>27731</v>
       </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13">
-        <f t="shared" si="3"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9">
+        <f t="shared" si="6"/>
         <v>22777.200000000001</v>
       </c>
-      <c r="O129" s="13"/>
-      <c r="P129" s="3"/>
-      <c r="Q129" s="3"/>
-    </row>
-    <row r="130" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B130" s="36"/>
+      <c r="O129" s="9">
+        <f t="shared" si="7"/>
+        <v>2939.7914381806149</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B130" s="25"/>
       <c r="C130" s="3">
         <v>750</v>
       </c>
@@ -7329,15 +7624,16 @@
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19468.2</v>
       </c>
-      <c r="O130" s="3"/>
-      <c r="P130" s="3"/>
-      <c r="Q130" s="3"/>
-    </row>
-    <row r="131" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B131" s="36"/>
+      <c r="O130" s="3">
+        <f t="shared" si="7"/>
+        <v>1474.2953231968145</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B131" s="25"/>
       <c r="C131" s="3">
         <v>1000</v>
       </c>
@@ -7362,15 +7658,16 @@
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3">
-        <f t="shared" ref="N131:N162" si="4">(AVERAGE(D131:M131))</f>
+        <f t="shared" ref="N131:N162" si="8">(AVERAGE(D131:M131))</f>
         <v>16745.599999999999</v>
       </c>
-      <c r="O131" s="3"/>
-      <c r="P131" s="3"/>
-      <c r="Q131" s="3"/>
-    </row>
-    <row r="132" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B132" s="36"/>
+      <c r="O131" s="3">
+        <f t="shared" ref="O131:O162" si="9">STDEV(D131:M131)</f>
+        <v>103.86674154896744</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B132" s="25"/>
       <c r="C132" s="3">
         <v>1500</v>
       </c>
@@ -7395,54 +7692,56 @@
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13558.2</v>
       </c>
-      <c r="O132" s="3"/>
-      <c r="P132" s="3"/>
-      <c r="Q132" s="3"/>
-    </row>
-    <row r="133" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B133" s="41"/>
-      <c r="C133" s="11">
+      <c r="O132" s="3">
+        <f t="shared" si="9"/>
+        <v>257.88214362378795</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B133" s="27"/>
+      <c r="C133" s="8">
         <v>2000</v>
       </c>
-      <c r="D133" s="11">
+      <c r="D133" s="8">
         <v>10796</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="8">
         <v>10908</v>
       </c>
-      <c r="F133" s="11">
+      <c r="F133" s="8">
         <v>11960</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="8">
         <v>10781</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="8">
         <v>10745</v>
       </c>
-      <c r="I133" s="11"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="11"/>
-      <c r="L133" s="11"/>
-      <c r="M133" s="11"/>
-      <c r="N133" s="11">
-        <f t="shared" si="4"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8">
+        <f t="shared" si="8"/>
         <v>11038</v>
       </c>
-      <c r="O133" s="11"/>
-      <c r="P133" s="3"/>
-      <c r="Q133" s="3"/>
-    </row>
-    <row r="134" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B134" s="43" t="s">
+      <c r="O133" s="8">
+        <f t="shared" si="9"/>
+        <v>519.00048169534489</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B134" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C134" s="3">
         <v>500</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="13">
         <v>9549</v>
       </c>
       <c r="E134" s="7">
@@ -7463,19 +7762,20 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
       <c r="N134" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11247.2</v>
       </c>
-      <c r="O134" s="7"/>
-      <c r="P134" s="3"/>
-      <c r="Q134" s="3"/>
-    </row>
-    <row r="135" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B135" s="38"/>
+      <c r="O134" s="7">
+        <f t="shared" si="9"/>
+        <v>3163.3953594199997</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B135" s="23"/>
       <c r="C135" s="3">
         <v>750</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="16">
         <v>10559</v>
       </c>
       <c r="E135" s="7">
@@ -7496,15 +7796,16 @@
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10664</v>
       </c>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-    </row>
-    <row r="136" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B136" s="38"/>
+      <c r="O135" s="3">
+        <f t="shared" si="9"/>
+        <v>2814.532110316029</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B136" s="23"/>
       <c r="C136" s="3">
         <v>1000</v>
       </c>
@@ -7529,15 +7830,16 @@
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9581.6</v>
       </c>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
-      <c r="Q136" s="3"/>
-    </row>
-    <row r="137" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B137" s="38"/>
+      <c r="O136" s="3">
+        <f t="shared" si="9"/>
+        <v>3224.3559511939739</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B137" s="23"/>
       <c r="C137" s="3">
         <v>1500</v>
       </c>
@@ -7562,48 +7864,50 @@
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5850.6</v>
       </c>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-      <c r="Q137" s="3"/>
-    </row>
-    <row r="138" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B138" s="38"/>
-      <c r="C138" s="11">
+      <c r="O137" s="3">
+        <f t="shared" si="9"/>
+        <v>132.22821181578462</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B138" s="23"/>
+      <c r="C138" s="8">
         <v>2000</v>
       </c>
-      <c r="D138" s="11">
+      <c r="D138" s="8">
         <v>4002</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="8">
         <v>4147</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="8">
         <v>3685</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="8">
         <v>3702</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="8">
         <v>3810</v>
       </c>
-      <c r="I138" s="11"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="11"/>
-      <c r="L138" s="11"/>
-      <c r="M138" s="11"/>
-      <c r="N138" s="11">
-        <f t="shared" si="4"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="8"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8">
+        <f t="shared" si="8"/>
         <v>3869.2</v>
       </c>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-      <c r="Q138" s="3"/>
-    </row>
-    <row r="139" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B139" s="35" t="s">
+      <c r="O138" s="3">
+        <f t="shared" si="9"/>
+        <v>200.12421142880237</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B139" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C139" s="3">
@@ -7630,15 +7934,16 @@
       <c r="L139" s="7"/>
       <c r="M139" s="7"/>
       <c r="N139" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>19936.599999999999</v>
       </c>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="Q139" s="3"/>
-    </row>
-    <row r="140" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B140" s="35"/>
+      <c r="O139" s="3">
+        <f t="shared" si="9"/>
+        <v>1388.7666470649415</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B140" s="24"/>
       <c r="C140" s="3">
         <v>750</v>
       </c>
@@ -7663,15 +7968,16 @@
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>17144.8</v>
       </c>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-      <c r="Q140" s="3"/>
-    </row>
-    <row r="141" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B141" s="35"/>
+      <c r="O140" s="3">
+        <f t="shared" si="9"/>
+        <v>1896.0840434959628</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B141" s="24"/>
       <c r="C141" s="3">
         <v>1000</v>
       </c>
@@ -7696,15 +8002,16 @@
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>14451.6</v>
       </c>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-      <c r="Q141" s="3"/>
-    </row>
-    <row r="142" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B142" s="35"/>
+      <c r="O141" s="3">
+        <f t="shared" si="9"/>
+        <v>807.33902420234824</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B142" s="24"/>
       <c r="C142" s="3">
         <v>1500</v>
       </c>
@@ -7729,54 +8036,56 @@
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9213.7999999999993</v>
       </c>
-      <c r="O142" s="3"/>
-      <c r="P142" s="3"/>
-      <c r="Q142" s="3"/>
-    </row>
-    <row r="143" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B143" s="35"/>
-      <c r="C143" s="11">
+      <c r="O142" s="3">
+        <f t="shared" si="9"/>
+        <v>975.88995281230348</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B143" s="24"/>
+      <c r="C143" s="8">
         <v>2000</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="8">
         <v>5736</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="8">
         <v>6728</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="8">
         <v>5653</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="8">
         <v>5957</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="8">
         <v>6142</v>
       </c>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11">
-        <f t="shared" si="4"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8">
+        <f t="shared" si="8"/>
         <v>6043.2</v>
       </c>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-    </row>
-    <row r="144" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B144" s="36" t="s">
+      <c r="O143" s="8">
+        <f t="shared" si="9"/>
+        <v>428.01016343072973</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B144" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C144" s="3">
         <v>500</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="13">
         <v>40848</v>
       </c>
       <c r="E144" s="7">
@@ -7797,19 +8106,20 @@
       <c r="L144" s="7"/>
       <c r="M144" s="7"/>
       <c r="N144" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>31504.2</v>
       </c>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
-    </row>
-    <row r="145" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B145" s="36"/>
+      <c r="O144" s="7">
+        <f t="shared" si="9"/>
+        <v>5258.3998706831007</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B145" s="25"/>
       <c r="C145" s="3">
         <v>750</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="16">
         <v>23154</v>
       </c>
       <c r="E145" s="7">
@@ -7830,15 +8140,16 @@
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22756</v>
       </c>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
-      <c r="Q145" s="3"/>
-    </row>
-    <row r="146" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B146" s="36"/>
+      <c r="O145" s="3">
+        <f t="shared" si="9"/>
+        <v>1169.0096235703109</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B146" s="25"/>
       <c r="C146" s="3">
         <v>1000</v>
       </c>
@@ -7863,15 +8174,16 @@
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>20795</v>
       </c>
-      <c r="O146" s="3"/>
-      <c r="P146" s="3"/>
-      <c r="Q146" s="3"/>
-    </row>
-    <row r="147" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B147" s="36"/>
+      <c r="O146" s="3">
+        <f t="shared" si="9"/>
+        <v>6061.0298217382169</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B147" s="25"/>
       <c r="C147" s="3">
         <v>1500</v>
       </c>
@@ -7896,54 +8208,56 @@
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>15506.4</v>
       </c>
-      <c r="O147" s="3"/>
-      <c r="P147" s="3"/>
-      <c r="Q147" s="3"/>
-    </row>
-    <row r="148" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B148" s="36"/>
-      <c r="C148" s="11">
+      <c r="O147" s="3">
+        <f t="shared" si="9"/>
+        <v>958.63981765833194</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B148" s="25"/>
+      <c r="C148" s="8">
         <v>2000</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="8">
         <v>10399</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="8">
         <v>10826</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="8">
         <v>12720</v>
       </c>
-      <c r="G148" s="11">
+      <c r="G148" s="8">
         <v>12397</v>
       </c>
-      <c r="H148" s="11">
+      <c r="H148" s="8">
         <v>10854</v>
       </c>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11">
-        <f t="shared" si="4"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8">
+        <f t="shared" si="8"/>
         <v>11439.2</v>
       </c>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-    </row>
-    <row r="149" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B149" s="38" t="s">
+      <c r="O148" s="8">
+        <f t="shared" si="9"/>
+        <v>1043.8293442895731</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B149" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C149" s="3">
         <v>500</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="13">
         <v>16361</v>
       </c>
       <c r="E149" s="7">
@@ -7964,19 +8278,20 @@
       <c r="L149" s="7"/>
       <c r="M149" s="7"/>
       <c r="N149" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21918.2</v>
       </c>
-      <c r="O149" s="7"/>
-      <c r="P149" s="7"/>
-      <c r="Q149" s="7"/>
-    </row>
-    <row r="150" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B150" s="38"/>
+      <c r="O149" s="7">
+        <f t="shared" si="9"/>
+        <v>7599.654775053933</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B150" s="23"/>
       <c r="C150" s="3">
         <v>750</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="16">
         <v>26914</v>
       </c>
       <c r="E150" s="7">
@@ -7997,15 +8312,16 @@
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>21048.799999999999</v>
       </c>
-      <c r="O150" s="3"/>
-      <c r="P150" s="3"/>
-      <c r="Q150" s="3"/>
-    </row>
-    <row r="151" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B151" s="38"/>
+      <c r="O150" s="3">
+        <f t="shared" si="9"/>
+        <v>7125.7470275052601</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B151" s="23"/>
       <c r="C151" s="3">
         <v>1000</v>
       </c>
@@ -8030,15 +8346,16 @@
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>11096.4</v>
       </c>
-      <c r="O151" s="3"/>
-      <c r="P151" s="3"/>
-      <c r="Q151" s="3"/>
-    </row>
-    <row r="152" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B152" s="38"/>
+      <c r="O151" s="3">
+        <f t="shared" si="9"/>
+        <v>151.28218665791422</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B152" s="23"/>
       <c r="C152" s="3">
         <v>1500</v>
       </c>
@@ -8063,54 +8380,56 @@
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8365.4</v>
       </c>
-      <c r="O152" s="3"/>
-      <c r="P152" s="3"/>
-      <c r="Q152" s="3"/>
-    </row>
-    <row r="153" spans="2:17" ht="14.4" customHeight="1" thickBot="1">
-      <c r="B153" s="38"/>
-      <c r="C153" s="11">
+      <c r="O152" s="3">
+        <f t="shared" si="9"/>
+        <v>1276.2457835385774</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" ht="14.4" customHeight="1" thickBot="1">
+      <c r="B153" s="23"/>
+      <c r="C153" s="8">
         <v>2000</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="8">
         <v>5764</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="8">
         <v>5337</v>
       </c>
-      <c r="F153" s="11">
+      <c r="F153" s="8">
         <v>5375</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="8">
         <v>5340</v>
       </c>
-      <c r="H153" s="11">
+      <c r="H153" s="8">
         <v>5290</v>
       </c>
-      <c r="I153" s="11"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="11"/>
-      <c r="L153" s="11"/>
-      <c r="M153" s="11"/>
-      <c r="N153" s="11">
-        <f t="shared" si="4"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8">
+        <f t="shared" si="8"/>
         <v>5421.2</v>
       </c>
-      <c r="O153" s="11"/>
-      <c r="P153" s="11"/>
-      <c r="Q153" s="11"/>
-    </row>
-    <row r="154" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B154" s="35" t="s">
+      <c r="O153" s="8">
+        <f t="shared" si="9"/>
+        <v>193.99922680258288</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B154" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C154" s="3">
         <v>500</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="13">
         <v>34173</v>
       </c>
       <c r="E154" s="7">
@@ -8131,19 +8450,20 @@
       <c r="L154" s="7"/>
       <c r="M154" s="7"/>
       <c r="N154" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>35125.599999999999</v>
       </c>
-      <c r="O154" s="7"/>
-      <c r="P154" s="7"/>
-      <c r="Q154" s="7"/>
-    </row>
-    <row r="155" spans="2:17" ht="14.4" customHeight="1">
-      <c r="B155" s="35"/>
+      <c r="O154" s="7">
+        <f t="shared" si="9"/>
+        <v>720.68772710515896</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" ht="14.4" customHeight="1">
+      <c r="B155" s="24"/>
       <c r="C155" s="3">
         <v>750</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="16">
         <v>25975</v>
       </c>
       <c r="E155" s="7">
@@ -8164,15 +8484,16 @@
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>27741.599999999999</v>
       </c>
-      <c r="O155" s="3"/>
-      <c r="P155" s="3"/>
-      <c r="Q155" s="3"/>
-    </row>
-    <row r="156" spans="2:17">
-      <c r="B156" s="35"/>
+      <c r="O155" s="3">
+        <f t="shared" si="9"/>
+        <v>1073.5934053448727</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15">
+      <c r="B156" s="24"/>
       <c r="C156" s="3">
         <v>1000</v>
       </c>
@@ -8197,15 +8518,16 @@
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22164.799999999999</v>
       </c>
-      <c r="O156" s="3"/>
-      <c r="P156" s="3"/>
-      <c r="Q156" s="3"/>
-    </row>
-    <row r="157" spans="2:17">
-      <c r="B157" s="35"/>
+      <c r="O156" s="3">
+        <f t="shared" si="9"/>
+        <v>1155.0314714327053</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15">
+      <c r="B157" s="24"/>
       <c r="C157" s="3">
         <v>1500</v>
       </c>
@@ -8230,54 +8552,56 @@
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>13743</v>
       </c>
-      <c r="O157" s="3"/>
-      <c r="P157" s="3"/>
-      <c r="Q157" s="3"/>
-    </row>
-    <row r="158" spans="2:17" ht="15" thickBot="1">
-      <c r="B158" s="35"/>
-      <c r="C158" s="11">
+      <c r="O157" s="3">
+        <f t="shared" si="9"/>
+        <v>1559.3285413920955</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" ht="15" thickBot="1">
+      <c r="B158" s="24"/>
+      <c r="C158" s="8">
         <v>2000</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="8">
         <v>8560</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="8">
         <v>10440</v>
       </c>
-      <c r="F158" s="11">
+      <c r="F158" s="8">
         <v>10055</v>
       </c>
-      <c r="G158" s="11">
+      <c r="G158" s="8">
         <v>9866</v>
       </c>
-      <c r="H158" s="11">
+      <c r="H158" s="8">
         <v>10093</v>
       </c>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="11"/>
-      <c r="N158" s="11">
-        <f t="shared" si="4"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8">
+        <f t="shared" si="8"/>
         <v>9802.7999999999993</v>
       </c>
-      <c r="O158" s="11"/>
-      <c r="P158" s="11"/>
-      <c r="Q158" s="11"/>
-    </row>
-    <row r="159" spans="2:17">
-      <c r="B159" s="36" t="s">
+      <c r="O158" s="8">
+        <f t="shared" si="9"/>
+        <v>724.98117216931917</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15">
+      <c r="B159" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C159" s="3">
         <v>500</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="13">
         <v>10704</v>
       </c>
       <c r="E159" s="7">
@@ -8298,19 +8622,20 @@
       <c r="L159" s="7"/>
       <c r="M159" s="7"/>
       <c r="N159" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>10638.4</v>
       </c>
-      <c r="O159" s="7"/>
-      <c r="P159" s="7"/>
-      <c r="Q159" s="7"/>
-    </row>
-    <row r="160" spans="2:17">
-      <c r="B160" s="36"/>
+      <c r="O159" s="7">
+        <f t="shared" si="9"/>
+        <v>101.75853772534273</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15">
+      <c r="B160" s="25"/>
       <c r="C160" s="3">
         <v>750</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="16">
         <v>9537</v>
       </c>
       <c r="E160" s="7">
@@ -8331,15 +8656,16 @@
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9574.6</v>
       </c>
-      <c r="O160" s="3"/>
-      <c r="P160" s="3"/>
-      <c r="Q160" s="3"/>
-    </row>
-    <row r="161" spans="2:17">
-      <c r="B161" s="36"/>
+      <c r="O160" s="3">
+        <f t="shared" si="9"/>
+        <v>85.838802414758788</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15">
+      <c r="B161" s="25"/>
       <c r="C161" s="3">
         <v>1000</v>
       </c>
@@ -8364,15 +8690,16 @@
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9304.4</v>
       </c>
-      <c r="O161" s="3"/>
-      <c r="P161" s="3"/>
-      <c r="Q161" s="3"/>
-    </row>
-    <row r="162" spans="2:17">
-      <c r="B162" s="36"/>
+      <c r="O161" s="3">
+        <f t="shared" si="9"/>
+        <v>92.505675501560447</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15">
+      <c r="B162" s="25"/>
       <c r="C162" s="3">
         <v>1500</v>
       </c>
@@ -8397,54 +8724,56 @@
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8112</v>
       </c>
-      <c r="O162" s="3"/>
-      <c r="P162" s="3"/>
-      <c r="Q162" s="3"/>
-    </row>
-    <row r="163" spans="2:17" ht="15" thickBot="1">
-      <c r="B163" s="36"/>
-      <c r="C163" s="11">
+      <c r="O162" s="3">
+        <f t="shared" si="9"/>
+        <v>128.50097275896397</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" ht="15" thickBot="1">
+      <c r="B163" s="25"/>
+      <c r="C163" s="8">
         <v>2000</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="8">
         <v>7775</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="8">
         <v>7527</v>
       </c>
-      <c r="F163" s="11">
+      <c r="F163" s="8">
         <v>7483</v>
       </c>
-      <c r="G163" s="11">
+      <c r="G163" s="8">
         <v>7561</v>
       </c>
-      <c r="H163" s="11">
+      <c r="H163" s="8">
         <v>7381</v>
       </c>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11">
-        <f t="shared" ref="N163:N193" si="5">(AVERAGE(D163:M163))</f>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8">
+        <f t="shared" ref="N163:N193" si="10">(AVERAGE(D163:M163))</f>
         <v>7545.4</v>
       </c>
-      <c r="O163" s="11"/>
-      <c r="P163" s="11"/>
-      <c r="Q163" s="11"/>
-    </row>
-    <row r="164" spans="2:17">
-      <c r="B164" s="38" t="s">
+      <c r="O163" s="8">
+        <f t="shared" ref="O163:O193" si="11">STDEV(D163:M163)</f>
+        <v>145.10272223497392</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15">
+      <c r="B164" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C164" s="3">
         <v>500</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="13">
         <v>10479</v>
       </c>
       <c r="E164" s="7">
@@ -8465,19 +8794,20 @@
       <c r="L164" s="7"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10492.2</v>
       </c>
-      <c r="O164" s="7"/>
-      <c r="P164" s="7"/>
-      <c r="Q164" s="7"/>
-    </row>
-    <row r="165" spans="2:17">
-      <c r="B165" s="38"/>
+      <c r="O164" s="7">
+        <f t="shared" si="11"/>
+        <v>393.99073593169675</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15">
+      <c r="B165" s="23"/>
       <c r="C165" s="3">
         <v>750</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="16">
         <v>8880</v>
       </c>
       <c r="E165" s="7">
@@ -8498,15 +8828,16 @@
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8953.2000000000007</v>
       </c>
-      <c r="O165" s="3"/>
-      <c r="P165" s="3"/>
-      <c r="Q165" s="3"/>
-    </row>
-    <row r="166" spans="2:17">
-      <c r="B166" s="38"/>
+      <c r="O165" s="3">
+        <f t="shared" si="11"/>
+        <v>78.337092108400341</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15">
+      <c r="B166" s="23"/>
       <c r="C166" s="3">
         <v>1000</v>
       </c>
@@ -8531,15 +8862,16 @@
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7874.4</v>
       </c>
-      <c r="O166" s="3"/>
-      <c r="P166" s="3"/>
-      <c r="Q166" s="3"/>
-    </row>
-    <row r="167" spans="2:17">
-      <c r="B167" s="38"/>
+      <c r="O166" s="3">
+        <f t="shared" si="11"/>
+        <v>92.316304085464765</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15">
+      <c r="B167" s="23"/>
       <c r="C167" s="3">
         <v>1500</v>
       </c>
@@ -8564,56 +8896,56 @@
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5265.2</v>
       </c>
-      <c r="O167" s="3"/>
-      <c r="P167" s="3"/>
-      <c r="Q167" s="3"/>
-    </row>
-    <row r="168" spans="2:17" ht="15" thickBot="1">
-      <c r="B168" s="38"/>
-      <c r="C168" s="11">
+      <c r="O167" s="3">
+        <f t="shared" si="11"/>
+        <v>152.65876981031911</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" ht="15" thickBot="1">
+      <c r="B168" s="23"/>
+      <c r="C168" s="8">
         <v>2000</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="8">
         <v>3702</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="8">
         <v>3827</v>
       </c>
-      <c r="F168" s="11">
+      <c r="F168" s="8">
         <v>5561</v>
       </c>
-      <c r="G168" s="11">
+      <c r="G168" s="8">
         <v>3932</v>
       </c>
-      <c r="H168" s="11">
+      <c r="H168" s="8">
         <v>3785</v>
       </c>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="11"/>
-      <c r="N168" s="11">
-        <f t="shared" si="5"/>
+      <c r="I168" s="8"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
+      <c r="N168" s="8">
+        <f t="shared" si="10"/>
         <v>4161.3999999999996</v>
       </c>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="Q168" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="169" spans="2:17">
-      <c r="B169" s="35" t="s">
+      <c r="O168" s="8">
+        <f t="shared" si="11"/>
+        <v>786.77398279302599</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15">
+      <c r="B169" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C169" s="3">
         <v>500</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="13">
         <v>12450</v>
       </c>
       <c r="E169" s="7">
@@ -8634,19 +8966,20 @@
       <c r="L169" s="7"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11936.2</v>
       </c>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="7"/>
-    </row>
-    <row r="170" spans="2:17">
-      <c r="B170" s="35"/>
+      <c r="O169" s="7">
+        <f t="shared" si="11"/>
+        <v>343.45334472093879</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15">
+      <c r="B170" s="24"/>
       <c r="C170" s="3">
         <v>750</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="16">
         <v>9856</v>
       </c>
       <c r="E170" s="7">
@@ -8667,15 +9000,16 @@
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
       <c r="N170" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9552.6</v>
       </c>
-      <c r="O170" s="3"/>
-      <c r="P170" s="3"/>
-      <c r="Q170" s="3"/>
-    </row>
-    <row r="171" spans="2:17">
-      <c r="B171" s="35"/>
+      <c r="O170" s="3">
+        <f t="shared" si="11"/>
+        <v>465.20135425426264</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15">
+      <c r="B171" s="24"/>
       <c r="C171" s="3">
         <v>1000</v>
       </c>
@@ -8700,15 +9034,16 @@
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
       <c r="N171" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7596</v>
       </c>
-      <c r="O171" s="3"/>
-      <c r="P171" s="3"/>
-      <c r="Q171" s="3"/>
-    </row>
-    <row r="172" spans="2:17">
-      <c r="B172" s="35"/>
+      <c r="O171" s="3">
+        <f t="shared" si="11"/>
+        <v>102.05635697985697</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15">
+      <c r="B172" s="24"/>
       <c r="C172" s="3">
         <v>1500</v>
       </c>
@@ -8733,120 +9068,124 @@
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
       <c r="N172" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6129.8</v>
       </c>
-      <c r="O172" s="3"/>
-      <c r="P172" s="3"/>
-      <c r="Q172" s="3"/>
-    </row>
-    <row r="173" spans="2:17" ht="15" thickBot="1">
-      <c r="B173" s="35"/>
-      <c r="C173" s="11">
+      <c r="O172" s="3">
+        <f t="shared" si="11"/>
+        <v>787.88304969709998</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" ht="15" thickBot="1">
+      <c r="B173" s="24"/>
+      <c r="C173" s="8">
         <v>2000</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="8">
         <v>4099</v>
       </c>
-      <c r="E173" s="11">
+      <c r="E173" s="8">
         <v>3861</v>
       </c>
-      <c r="F173" s="11">
+      <c r="F173" s="8">
         <v>4275</v>
       </c>
-      <c r="G173" s="11">
+      <c r="G173" s="8">
         <v>3719</v>
       </c>
-      <c r="H173" s="11">
+      <c r="H173" s="8">
         <v>3946</v>
       </c>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
-      <c r="N173" s="11">
-        <f t="shared" si="5"/>
+      <c r="I173" s="8"/>
+      <c r="J173" s="8"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
+      <c r="N173" s="8">
+        <f t="shared" si="10"/>
         <v>3980</v>
       </c>
-      <c r="O173" s="11"/>
-      <c r="P173" s="3"/>
-      <c r="Q173" s="3"/>
-    </row>
-    <row r="174" spans="2:17">
-      <c r="B174" s="36" t="s">
+      <c r="O173" s="8">
+        <f t="shared" si="11"/>
+        <v>214.83947495746679</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15">
+      <c r="B174" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C174" s="3">
         <v>500</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
-      <c r="G174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="48"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
       <c r="L174" s="7"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O174" s="7"/>
-      <c r="P174" s="3"/>
-      <c r="Q174" s="3"/>
-    </row>
-    <row r="175" spans="2:17">
-      <c r="B175" s="36"/>
+      <c r="O174" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15">
+      <c r="B175" s="25"/>
       <c r="C175" s="3">
         <v>750</v>
       </c>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="48"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O175" s="3"/>
-      <c r="P175" s="3"/>
-      <c r="Q175" s="3"/>
-    </row>
-    <row r="176" spans="2:17">
-      <c r="B176" s="36"/>
+      <c r="O175" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15">
+      <c r="B176" s="25"/>
       <c r="C176" s="3">
         <v>1000</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="48"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
       <c r="N176" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O176" s="3"/>
-      <c r="P176" s="3"/>
-      <c r="Q176" s="3"/>
-    </row>
-    <row r="177" spans="2:17">
-      <c r="B177" s="36"/>
+      <c r="O176" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15">
+      <c r="B177" s="25"/>
       <c r="C177" s="3">
         <v>1500</v>
       </c>
@@ -8871,165 +9210,172 @@
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>174725.4</v>
       </c>
-      <c r="O177" s="3"/>
-      <c r="P177" s="3"/>
-      <c r="Q177" s="3"/>
-    </row>
-    <row r="178" spans="2:17" ht="15" thickBot="1">
-      <c r="B178" s="36"/>
-      <c r="C178" s="11">
+      <c r="O177" s="3">
+        <f t="shared" si="11"/>
+        <v>2887.7802547977917</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" ht="15" thickBot="1">
+      <c r="B178" s="25"/>
+      <c r="C178" s="8">
         <v>2000</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="8">
         <v>35476</v>
       </c>
-      <c r="E178" s="11">
+      <c r="E178" s="8">
         <v>34874</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="8">
         <v>37702</v>
       </c>
-      <c r="G178" s="11">
+      <c r="G178" s="8">
         <v>34696</v>
       </c>
-      <c r="H178" s="11">
+      <c r="H178" s="8">
         <v>34732</v>
       </c>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11">
-        <f t="shared" si="5"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
+      <c r="N178" s="8">
+        <f t="shared" si="10"/>
         <v>35496</v>
       </c>
-      <c r="O178" s="3"/>
-      <c r="P178" s="3"/>
-      <c r="Q178" s="3"/>
-    </row>
-    <row r="179" spans="2:17">
-      <c r="B179" s="38" t="s">
+      <c r="O178" s="3">
+        <f t="shared" si="11"/>
+        <v>1272.5384080647625</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15">
+      <c r="B179" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C179" s="7">
         <v>500</v>
       </c>
-      <c r="D179" s="51"/>
-      <c r="E179" s="52"/>
-      <c r="F179" s="52"/>
-      <c r="G179" s="52"/>
-      <c r="H179" s="52"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
       <c r="L179" s="7"/>
       <c r="M179" s="7"/>
       <c r="N179" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O179" s="3"/>
-      <c r="P179" s="3"/>
-      <c r="Q179" s="3"/>
-    </row>
-    <row r="180" spans="2:17">
-      <c r="B180" s="38"/>
+      <c r="O179" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15">
+      <c r="B180" s="23"/>
       <c r="C180" s="3">
         <v>750</v>
       </c>
-      <c r="D180" s="53"/>
-      <c r="E180" s="52"/>
-      <c r="F180" s="52"/>
-      <c r="G180" s="52"/>
-      <c r="H180" s="52"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
       <c r="N180" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
-    </row>
-    <row r="181" spans="2:17">
-      <c r="B181" s="38"/>
+      <c r="O180" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15">
+      <c r="B181" s="23"/>
       <c r="C181" s="3">
         <v>1000</v>
       </c>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="54"/>
-      <c r="H181" s="54"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
-    </row>
-    <row r="182" spans="2:17">
-      <c r="B182" s="38"/>
+      <c r="O181" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15">
+      <c r="B182" s="23"/>
       <c r="C182" s="3">
         <v>1500</v>
       </c>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
       <c r="N182" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O182" s="3"/>
-      <c r="P182" s="3"/>
-      <c r="Q182" s="3"/>
-    </row>
-    <row r="183" spans="2:17" ht="15" thickBot="1">
-      <c r="B183" s="38"/>
-      <c r="C183" s="11">
+      <c r="O182" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" ht="15" thickBot="1">
+      <c r="B183" s="23"/>
+      <c r="C183" s="8">
         <v>2000</v>
       </c>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="55"/>
-      <c r="G183" s="55"/>
-      <c r="H183" s="55"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
-      <c r="M183" s="11"/>
-      <c r="N183" s="11" t="e">
-        <f t="shared" si="5"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="8"/>
+      <c r="N183" s="8" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O183" s="3"/>
-      <c r="P183" s="3"/>
-      <c r="Q183" s="3"/>
-    </row>
-    <row r="184" spans="2:17">
-      <c r="B184" s="35" t="s">
+      <c r="O183" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15">
+      <c r="B184" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C184" s="3">
@@ -9046,15 +9392,16 @@
       <c r="L184" s="7"/>
       <c r="M184" s="7"/>
       <c r="N184" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O184" s="3"/>
-      <c r="P184" s="3"/>
-      <c r="Q184" s="3"/>
-    </row>
-    <row r="185" spans="2:17">
-      <c r="B185" s="35"/>
+      <c r="O184" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15">
+      <c r="B185" s="24"/>
       <c r="C185" s="3">
         <v>750</v>
       </c>
@@ -9069,19 +9416,22 @@
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
       <c r="N185" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O185" s="3"/>
-      <c r="P185" s="3"/>
-      <c r="Q185" s="3"/>
-    </row>
-    <row r="186" spans="2:17">
-      <c r="B186" s="35"/>
+      <c r="O185" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15">
+      <c r="B186" s="24"/>
       <c r="C186" s="3">
         <v>1000</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
@@ -9092,96 +9442,110 @@
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
       <c r="N186" s="3" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O186" s="3"/>
-      <c r="P186" s="3"/>
-      <c r="Q186" s="3"/>
-    </row>
-    <row r="187" spans="2:17">
-      <c r="B187" s="35"/>
+      <c r="O186" s="3" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15">
+      <c r="B187" s="24"/>
       <c r="C187" s="3">
         <v>1500</v>
       </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="D187" s="7">
+        <v>280567</v>
+      </c>
+      <c r="E187" s="7">
+        <v>254658</v>
+      </c>
+      <c r="F187" s="7">
+        <v>279304</v>
+      </c>
+      <c r="G187" s="7">
+        <v>248999</v>
+      </c>
+      <c r="H187" s="7">
+        <v>201535</v>
+      </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
-      <c r="N187" s="3" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O187" s="3"/>
-      <c r="P187" s="3"/>
-      <c r="Q187" s="3"/>
-    </row>
-    <row r="188" spans="2:17" ht="15" thickBot="1">
-      <c r="B188" s="35"/>
-      <c r="C188" s="11">
+      <c r="N187" s="3">
+        <f t="shared" si="10"/>
+        <v>253012.6</v>
+      </c>
+      <c r="O187" s="3">
+        <f t="shared" si="11"/>
+        <v>32090.661808382873</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" ht="15" thickBot="1">
+      <c r="B188" s="24"/>
+      <c r="C188" s="8">
         <v>2000</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="8">
         <v>21211</v>
       </c>
-      <c r="E188" s="11">
+      <c r="E188" s="8">
         <v>21817</v>
       </c>
-      <c r="F188" s="11">
+      <c r="F188" s="8">
         <v>22341</v>
       </c>
-      <c r="G188" s="11">
+      <c r="G188" s="8">
         <v>22019</v>
       </c>
-      <c r="H188" s="11">
+      <c r="H188" s="8">
         <v>21560</v>
       </c>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11">
-        <f t="shared" si="5"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8">
+        <f t="shared" si="10"/>
         <v>21789.599999999999</v>
       </c>
-      <c r="O188" s="3"/>
-      <c r="P188" s="3"/>
-      <c r="Q188" s="3"/>
-    </row>
-    <row r="189" spans="2:17">
-      <c r="B189" s="49" t="s">
+      <c r="O188" s="3">
+        <f t="shared" si="11"/>
+        <v>431.54119154490917</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15">
+      <c r="B189" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C189" s="4">
         <v>1000</v>
       </c>
-      <c r="D189" s="24"/>
-      <c r="E189" s="24"/>
-      <c r="F189" s="24"/>
-      <c r="G189" s="24"/>
-      <c r="H189" s="24"/>
-      <c r="I189" s="24"/>
-      <c r="J189" s="24"/>
-      <c r="K189" s="24"/>
-      <c r="L189" s="24"/>
-      <c r="M189" s="24"/>
-      <c r="N189" s="24" t="e">
-        <f t="shared" si="5"/>
+      <c r="D189" s="18"/>
+      <c r="E189" s="18"/>
+      <c r="F189" s="18"/>
+      <c r="G189" s="18"/>
+      <c r="H189" s="18"/>
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+      <c r="N189" s="18" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O189" s="4"/>
-      <c r="P189" s="3"/>
-      <c r="Q189" s="3"/>
-    </row>
-    <row r="190" spans="2:17">
-      <c r="B190" s="49"/>
+      <c r="O189" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15">
+      <c r="B190" s="22"/>
       <c r="C190" s="4">
         <v>2000</v>
       </c>
@@ -9196,15 +9560,16 @@
       <c r="L190" s="4"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O190" s="4"/>
-      <c r="P190" s="3"/>
-      <c r="Q190" s="3"/>
-    </row>
-    <row r="191" spans="2:17">
-      <c r="B191" s="49"/>
+      <c r="O190" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15">
+      <c r="B191" s="22"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
@@ -9217,14 +9582,15 @@
       <c r="L191" s="4"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O191" s="4"/>
-      <c r="P191" s="3"/>
-      <c r="Q191" s="3"/>
-    </row>
-    <row r="192" spans="2:17">
+      <c r="O191" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -9237,16 +9603,17 @@
       <c r="L192" s="5"/>
       <c r="M192" s="5"/>
       <c r="N192" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O192" s="5"/>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
-    </row>
-    <row r="193" spans="2:17">
+      <c r="O192" s="5" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15">
       <c r="B193">
-        <f ca="1">S106+B193</f>
+        <f ca="1">Q106+B193</f>
         <v>0</v>
       </c>
       <c r="C193" s="4"/>
@@ -9261,14 +9628,15 @@
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O193" s="4"/>
-      <c r="P193" s="22"/>
-      <c r="Q193" s="22"/>
-    </row>
-    <row r="197" spans="2:17">
+      <c r="O193" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15">
       <c r="B197" t="s">
         <v>35</v>
       </c>
@@ -9276,10 +9644,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="2:17">
-      <c r="B198" s="15"/>
-    </row>
-    <row r="199" spans="2:17" ht="18">
+    <row r="198" spans="2:15">
+      <c r="B198" s="10"/>
+    </row>
+    <row r="199" spans="2:15" ht="18">
       <c r="B199" s="6" t="s">
         <v>37</v>
       </c>
@@ -9323,8 +9691,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="2:17">
-      <c r="B200" s="36" t="s">
+    <row r="200" spans="2:15">
+      <c r="B200" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C200" s="3">
@@ -9343,8 +9711,8 @@
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="2:17">
-      <c r="B201" s="36"/>
+    <row r="201" spans="2:15">
+      <c r="B201" s="25"/>
       <c r="C201" s="7">
         <v>4500</v>
       </c>
@@ -9361,8 +9729,8 @@
       <c r="N201" s="7"/>
       <c r="O201" s="7"/>
     </row>
-    <row r="202" spans="2:17">
-      <c r="B202" s="36"/>
+    <row r="202" spans="2:15">
+      <c r="B202" s="25"/>
       <c r="C202" s="3">
         <v>6000</v>
       </c>
@@ -9379,8 +9747,8 @@
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="2:17">
-      <c r="B203" s="36"/>
+    <row r="203" spans="2:15">
+      <c r="B203" s="25"/>
       <c r="C203" s="3">
         <v>7500</v>
       </c>
@@ -9397,8 +9765,8 @@
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="2:17" ht="15" thickBot="1">
-      <c r="B204" s="41"/>
+    <row r="204" spans="2:15" ht="15" thickBot="1">
+      <c r="B204" s="27"/>
       <c r="C204" s="3">
         <v>9000</v>
       </c>
@@ -9415,8 +9783,8 @@
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="2:17">
-      <c r="B205" s="43" t="s">
+    <row r="205" spans="2:15">
+      <c r="B205" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C205" s="3"/>
@@ -9433,8 +9801,8 @@
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="2:17">
-      <c r="B206" s="38"/>
+    <row r="206" spans="2:15">
+      <c r="B206" s="23"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
@@ -9449,8 +9817,8 @@
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="2:17">
-      <c r="B207" s="38"/>
+    <row r="207" spans="2:15">
+      <c r="B207" s="23"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -9465,8 +9833,8 @@
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="2:17">
-      <c r="B208" s="38"/>
+    <row r="208" spans="2:15">
+      <c r="B208" s="23"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -9482,7 +9850,7 @@
       <c r="O208" s="3"/>
     </row>
     <row r="209" spans="2:15" ht="15" thickBot="1">
-      <c r="B209" s="39"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -9498,7 +9866,7 @@
       <c r="O209" s="3"/>
     </row>
     <row r="210" spans="2:15">
-      <c r="B210" s="44" t="s">
+      <c r="B210" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C210" s="3"/>
@@ -9516,7 +9884,7 @@
       <c r="O210" s="3"/>
     </row>
     <row r="211" spans="2:15">
-      <c r="B211" s="35"/>
+      <c r="B211" s="24"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
@@ -9532,7 +9900,7 @@
       <c r="O211" s="3"/>
     </row>
     <row r="212" spans="2:15">
-      <c r="B212" s="35"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -9548,7 +9916,7 @@
       <c r="O212" s="3"/>
     </row>
     <row r="213" spans="2:15">
-      <c r="B213" s="35"/>
+      <c r="B213" s="24"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -9564,7 +9932,7 @@
       <c r="O213" s="3"/>
     </row>
     <row r="214" spans="2:15" ht="15" thickBot="1">
-      <c r="B214" s="45"/>
+      <c r="B214" s="31"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -9580,7 +9948,7 @@
       <c r="O214" s="3"/>
     </row>
     <row r="215" spans="2:15">
-      <c r="B215" s="46" t="s">
+      <c r="B215" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C215" s="3"/>
@@ -9598,7 +9966,7 @@
       <c r="O215" s="3"/>
     </row>
     <row r="216" spans="2:15">
-      <c r="B216" s="36"/>
+      <c r="B216" s="25"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
@@ -9614,7 +9982,7 @@
       <c r="O216" s="3"/>
     </row>
     <row r="217" spans="2:15">
-      <c r="B217" s="36"/>
+      <c r="B217" s="25"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -9630,7 +9998,7 @@
       <c r="O217" s="3"/>
     </row>
     <row r="218" spans="2:15">
-      <c r="B218" s="36"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -9646,7 +10014,7 @@
       <c r="O218" s="3"/>
     </row>
     <row r="219" spans="2:15" ht="15" thickBot="1">
-      <c r="B219" s="41"/>
+      <c r="B219" s="27"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -9658,11 +10026,11 @@
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
-      <c r="N219" s="11"/>
-      <c r="O219" s="11"/>
+      <c r="N219" s="8"/>
+      <c r="O219" s="8"/>
     </row>
     <row r="220" spans="2:15">
-      <c r="B220" s="48" t="s">
+      <c r="B220" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C220" s="3"/>
@@ -9676,11 +10044,11 @@
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
-      <c r="N220" s="13"/>
-      <c r="O220" s="13"/>
+      <c r="N220" s="9"/>
+      <c r="O220" s="9"/>
     </row>
     <row r="221" spans="2:15">
-      <c r="B221" s="38"/>
+      <c r="B221" s="23"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
@@ -9696,7 +10064,7 @@
       <c r="O221" s="3"/>
     </row>
     <row r="222" spans="2:15">
-      <c r="B222" s="38"/>
+      <c r="B222" s="23"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -9712,7 +10080,7 @@
       <c r="O222" s="3"/>
     </row>
     <row r="223" spans="2:15">
-      <c r="B223" s="38"/>
+      <c r="B223" s="23"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -9728,7 +10096,7 @@
       <c r="O223" s="3"/>
     </row>
     <row r="224" spans="2:15" ht="15" thickBot="1">
-      <c r="B224" s="39"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -9740,11 +10108,11 @@
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
-      <c r="N224" s="11"/>
-      <c r="O224" s="11"/>
+      <c r="N224" s="8"/>
+      <c r="O224" s="8"/>
     </row>
     <row r="225" spans="2:15">
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C225" s="3"/>
@@ -9758,11 +10126,11 @@
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
-      <c r="N225" s="13"/>
-      <c r="O225" s="13"/>
+      <c r="N225" s="9"/>
+      <c r="O225" s="9"/>
     </row>
     <row r="226" spans="2:15">
-      <c r="B226" s="35"/>
+      <c r="B226" s="24"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
@@ -9778,7 +10146,7 @@
       <c r="O226" s="3"/>
     </row>
     <row r="227" spans="2:15">
-      <c r="B227" s="35"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -9794,7 +10162,7 @@
       <c r="O227" s="3"/>
     </row>
     <row r="228" spans="2:15">
-      <c r="B228" s="35"/>
+      <c r="B228" s="24"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -9810,7 +10178,7 @@
       <c r="O228" s="3"/>
     </row>
     <row r="229" spans="2:15" ht="15" thickBot="1">
-      <c r="B229" s="45"/>
+      <c r="B229" s="31"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -9822,11 +10190,11 @@
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
-      <c r="N229" s="11"/>
-      <c r="O229" s="11"/>
+      <c r="N229" s="8"/>
+      <c r="O229" s="8"/>
     </row>
     <row r="230" spans="2:15">
-      <c r="B230" s="46" t="s">
+      <c r="B230" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C230" s="3"/>
@@ -9839,12 +10207,12 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
-      <c r="M230" s="13"/>
-      <c r="N230" s="13"/>
-      <c r="O230" s="13"/>
+      <c r="M230" s="9"/>
+      <c r="N230" s="9"/>
+      <c r="O230" s="9"/>
     </row>
     <row r="231" spans="2:15">
-      <c r="B231" s="36"/>
+      <c r="B231" s="25"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
@@ -9860,7 +10228,7 @@
       <c r="O231" s="3"/>
     </row>
     <row r="232" spans="2:15">
-      <c r="B232" s="36"/>
+      <c r="B232" s="25"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -9876,7 +10244,7 @@
       <c r="O232" s="3"/>
     </row>
     <row r="233" spans="2:15">
-      <c r="B233" s="36"/>
+      <c r="B233" s="25"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -9892,7 +10260,7 @@
       <c r="O233" s="3"/>
     </row>
     <row r="234" spans="2:15" ht="15" thickBot="1">
-      <c r="B234" s="41"/>
+      <c r="B234" s="27"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -9903,12 +10271,12 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
+      <c r="M234" s="8"/>
+      <c r="N234" s="8"/>
+      <c r="O234" s="8"/>
     </row>
     <row r="235" spans="2:15">
-      <c r="B235" s="43" t="s">
+      <c r="B235" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C235" s="3"/>
@@ -9926,7 +10294,7 @@
       <c r="O235" s="7"/>
     </row>
     <row r="236" spans="2:15">
-      <c r="B236" s="38"/>
+      <c r="B236" s="23"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
@@ -9942,7 +10310,7 @@
       <c r="O236" s="3"/>
     </row>
     <row r="237" spans="2:15">
-      <c r="B237" s="38"/>
+      <c r="B237" s="23"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -9958,7 +10326,7 @@
       <c r="O237" s="3"/>
     </row>
     <row r="238" spans="2:15">
-      <c r="B238" s="38"/>
+      <c r="B238" s="23"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -9974,7 +10342,7 @@
       <c r="O238" s="3"/>
     </row>
     <row r="239" spans="2:15">
-      <c r="B239" s="38"/>
+      <c r="B239" s="23"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -9990,7 +10358,7 @@
       <c r="O239" s="3"/>
     </row>
     <row r="240" spans="2:15">
-      <c r="B240" s="35" t="s">
+      <c r="B240" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C240" s="3"/>
@@ -10008,7 +10376,7 @@
       <c r="O240" s="3"/>
     </row>
     <row r="241" spans="2:15">
-      <c r="B241" s="35"/>
+      <c r="B241" s="24"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
@@ -10024,7 +10392,7 @@
       <c r="O241" s="3"/>
     </row>
     <row r="242" spans="2:15">
-      <c r="B242" s="35"/>
+      <c r="B242" s="24"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -10040,7 +10408,7 @@
       <c r="O242" s="3"/>
     </row>
     <row r="243" spans="2:15">
-      <c r="B243" s="35"/>
+      <c r="B243" s="24"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -10056,7 +10424,7 @@
       <c r="O243" s="3"/>
     </row>
     <row r="244" spans="2:15">
-      <c r="B244" s="35"/>
+      <c r="B244" s="24"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -10072,7 +10440,7 @@
       <c r="O244" s="3"/>
     </row>
     <row r="245" spans="2:15">
-      <c r="B245" s="36" t="s">
+      <c r="B245" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C245" s="3"/>
@@ -10090,7 +10458,7 @@
       <c r="O245" s="3"/>
     </row>
     <row r="246" spans="2:15">
-      <c r="B246" s="36"/>
+      <c r="B246" s="25"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
@@ -10106,7 +10474,7 @@
       <c r="O246" s="3"/>
     </row>
     <row r="247" spans="2:15">
-      <c r="B247" s="36"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -10122,7 +10490,7 @@
       <c r="O247" s="3"/>
     </row>
     <row r="248" spans="2:15">
-      <c r="B248" s="36"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -10138,7 +10506,7 @@
       <c r="O248" s="3"/>
     </row>
     <row r="249" spans="2:15">
-      <c r="B249" s="36"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -10154,7 +10522,7 @@
       <c r="O249" s="3"/>
     </row>
     <row r="250" spans="2:15">
-      <c r="B250" s="38" t="s">
+      <c r="B250" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C250" s="3"/>
@@ -10172,7 +10540,7 @@
       <c r="O250" s="3"/>
     </row>
     <row r="251" spans="2:15">
-      <c r="B251" s="38"/>
+      <c r="B251" s="23"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
@@ -10188,7 +10556,7 @@
       <c r="O251" s="3"/>
     </row>
     <row r="252" spans="2:15">
-      <c r="B252" s="38"/>
+      <c r="B252" s="23"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -10204,7 +10572,7 @@
       <c r="O252" s="3"/>
     </row>
     <row r="253" spans="2:15">
-      <c r="B253" s="38"/>
+      <c r="B253" s="23"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -10220,7 +10588,7 @@
       <c r="O253" s="3"/>
     </row>
     <row r="254" spans="2:15">
-      <c r="B254" s="38"/>
+      <c r="B254" s="23"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -10236,7 +10604,7 @@
       <c r="O254" s="3"/>
     </row>
     <row r="255" spans="2:15">
-      <c r="B255" s="35" t="s">
+      <c r="B255" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C255" s="3"/>
@@ -10254,7 +10622,7 @@
       <c r="O255" s="3"/>
     </row>
     <row r="256" spans="2:15">
-      <c r="B256" s="35"/>
+      <c r="B256" s="24"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
@@ -10270,7 +10638,7 @@
       <c r="O256" s="3"/>
     </row>
     <row r="257" spans="2:15">
-      <c r="B257" s="35"/>
+      <c r="B257" s="24"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -10286,7 +10654,7 @@
       <c r="O257" s="3"/>
     </row>
     <row r="258" spans="2:15">
-      <c r="B258" s="35"/>
+      <c r="B258" s="24"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -10302,7 +10670,7 @@
       <c r="O258" s="3"/>
     </row>
     <row r="259" spans="2:15">
-      <c r="B259" s="35"/>
+      <c r="B259" s="24"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -10318,7 +10686,7 @@
       <c r="O259" s="3"/>
     </row>
     <row r="260" spans="2:15">
-      <c r="B260" s="36" t="s">
+      <c r="B260" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C260" s="3"/>
@@ -10336,7 +10704,7 @@
       <c r="O260" s="3"/>
     </row>
     <row r="261" spans="2:15">
-      <c r="B261" s="36"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
@@ -10352,7 +10720,7 @@
       <c r="O261" s="3"/>
     </row>
     <row r="262" spans="2:15">
-      <c r="B262" s="36"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -10368,7 +10736,7 @@
       <c r="O262" s="3"/>
     </row>
     <row r="263" spans="2:15">
-      <c r="B263" s="36"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -10384,7 +10752,7 @@
       <c r="O263" s="3"/>
     </row>
     <row r="264" spans="2:15">
-      <c r="B264" s="36"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -10400,7 +10768,7 @@
       <c r="O264" s="3"/>
     </row>
     <row r="265" spans="2:15">
-      <c r="B265" s="38" t="s">
+      <c r="B265" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C265" s="3"/>
@@ -10418,7 +10786,7 @@
       <c r="O265" s="3"/>
     </row>
     <row r="266" spans="2:15">
-      <c r="B266" s="38"/>
+      <c r="B266" s="23"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
@@ -10434,7 +10802,7 @@
       <c r="O266" s="3"/>
     </row>
     <row r="267" spans="2:15">
-      <c r="B267" s="38"/>
+      <c r="B267" s="23"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -10450,7 +10818,7 @@
       <c r="O267" s="3"/>
     </row>
     <row r="268" spans="2:15">
-      <c r="B268" s="38"/>
+      <c r="B268" s="23"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -10466,7 +10834,7 @@
       <c r="O268" s="3"/>
     </row>
     <row r="269" spans="2:15">
-      <c r="B269" s="38"/>
+      <c r="B269" s="23"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -10482,7 +10850,7 @@
       <c r="O269" s="3"/>
     </row>
     <row r="270" spans="2:15">
-      <c r="B270" s="35" t="s">
+      <c r="B270" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C270" s="3"/>
@@ -10500,7 +10868,7 @@
       <c r="O270" s="3"/>
     </row>
     <row r="271" spans="2:15">
-      <c r="B271" s="35"/>
+      <c r="B271" s="24"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
@@ -10516,7 +10884,7 @@
       <c r="O271" s="3"/>
     </row>
     <row r="272" spans="2:15">
-      <c r="B272" s="35"/>
+      <c r="B272" s="24"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -10532,7 +10900,7 @@
       <c r="O272" s="3"/>
     </row>
     <row r="273" spans="2:15">
-      <c r="B273" s="35"/>
+      <c r="B273" s="24"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -10548,7 +10916,7 @@
       <c r="O273" s="3"/>
     </row>
     <row r="274" spans="2:15">
-      <c r="B274" s="35"/>
+      <c r="B274" s="24"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -10564,7 +10932,7 @@
       <c r="O274" s="3"/>
     </row>
     <row r="275" spans="2:15">
-      <c r="B275" s="36" t="s">
+      <c r="B275" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C275" s="3"/>
@@ -10582,7 +10950,7 @@
       <c r="O275" s="3"/>
     </row>
     <row r="276" spans="2:15">
-      <c r="B276" s="36"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
@@ -10598,7 +10966,7 @@
       <c r="O276" s="3"/>
     </row>
     <row r="277" spans="2:15">
-      <c r="B277" s="36"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -10614,7 +10982,7 @@
       <c r="O277" s="3"/>
     </row>
     <row r="278" spans="2:15">
-      <c r="B278" s="36"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -10630,7 +10998,7 @@
       <c r="O278" s="3"/>
     </row>
     <row r="279" spans="2:15">
-      <c r="B279" s="36"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -10646,7 +11014,7 @@
       <c r="O279" s="3"/>
     </row>
     <row r="280" spans="2:15">
-      <c r="B280" s="38" t="s">
+      <c r="B280" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C280" s="3"/>
@@ -10664,7 +11032,7 @@
       <c r="O280" s="3"/>
     </row>
     <row r="281" spans="2:15">
-      <c r="B281" s="38"/>
+      <c r="B281" s="23"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
@@ -10680,7 +11048,7 @@
       <c r="O281" s="3"/>
     </row>
     <row r="282" spans="2:15">
-      <c r="B282" s="38"/>
+      <c r="B282" s="23"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -10696,7 +11064,7 @@
       <c r="O282" s="3"/>
     </row>
     <row r="283" spans="2:15">
-      <c r="B283" s="38"/>
+      <c r="B283" s="23"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -10712,7 +11080,7 @@
       <c r="O283" s="3"/>
     </row>
     <row r="284" spans="2:15">
-      <c r="B284" s="38"/>
+      <c r="B284" s="23"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -10728,7 +11096,7 @@
       <c r="O284" s="3"/>
     </row>
     <row r="285" spans="2:15">
-      <c r="B285" s="35" t="s">
+      <c r="B285" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C285" s="3"/>
@@ -10746,7 +11114,7 @@
       <c r="O285" s="3"/>
     </row>
     <row r="286" spans="2:15">
-      <c r="B286" s="35"/>
+      <c r="B286" s="24"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
@@ -10762,7 +11130,7 @@
       <c r="O286" s="3"/>
     </row>
     <row r="287" spans="2:15">
-      <c r="B287" s="35"/>
+      <c r="B287" s="24"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -10778,7 +11146,7 @@
       <c r="O287" s="3"/>
     </row>
     <row r="288" spans="2:15">
-      <c r="B288" s="35"/>
+      <c r="B288" s="24"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -10794,7 +11162,7 @@
       <c r="O288" s="3"/>
     </row>
     <row r="289" spans="2:15">
-      <c r="B289" s="35"/>
+      <c r="B289" s="24"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -10810,7 +11178,7 @@
       <c r="O289" s="3"/>
     </row>
     <row r="290" spans="2:15">
-      <c r="B290" s="49" t="s">
+      <c r="B290" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C290" s="4"/>
@@ -10828,7 +11196,7 @@
       <c r="O290" s="4"/>
     </row>
     <row r="291" spans="2:15">
-      <c r="B291" s="49"/>
+      <c r="B291" s="22"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
@@ -10844,7 +11212,7 @@
       <c r="O291" s="4"/>
     </row>
     <row r="292" spans="2:15">
-      <c r="B292" s="49"/>
+      <c r="B292" s="22"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
@@ -10938,7 +11306,7 @@
       </c>
     </row>
     <row r="298" spans="2:15">
-      <c r="B298" s="36" t="s">
+      <c r="B298" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C298" s="3">
@@ -10958,7 +11326,7 @@
       <c r="O298" s="3"/>
     </row>
     <row r="299" spans="2:15">
-      <c r="B299" s="36"/>
+      <c r="B299" s="25"/>
       <c r="C299" s="7">
         <v>400</v>
       </c>
@@ -10976,7 +11344,7 @@
       <c r="O299" s="7"/>
     </row>
     <row r="300" spans="2:15">
-      <c r="B300" s="36"/>
+      <c r="B300" s="25"/>
       <c r="C300" s="3">
         <v>500</v>
       </c>
@@ -10994,7 +11362,7 @@
       <c r="O300" s="3"/>
     </row>
     <row r="301" spans="2:15">
-      <c r="B301" s="36"/>
+      <c r="B301" s="25"/>
       <c r="C301" s="3">
         <v>600</v>
       </c>
@@ -11012,7 +11380,7 @@
       <c r="O301" s="3"/>
     </row>
     <row r="302" spans="2:15" ht="15" thickBot="1">
-      <c r="B302" s="41"/>
+      <c r="B302" s="27"/>
       <c r="C302" s="3">
         <v>700</v>
       </c>
@@ -11030,7 +11398,7 @@
       <c r="O302" s="3"/>
     </row>
     <row r="303" spans="2:15">
-      <c r="B303" s="43" t="s">
+      <c r="B303" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C303" s="3"/>
@@ -11048,7 +11416,7 @@
       <c r="O303" s="3"/>
     </row>
     <row r="304" spans="2:15">
-      <c r="B304" s="38"/>
+      <c r="B304" s="23"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7"/>
       <c r="E304" s="7"/>
@@ -11064,7 +11432,7 @@
       <c r="O304" s="3"/>
     </row>
     <row r="305" spans="2:15">
-      <c r="B305" s="38"/>
+      <c r="B305" s="23"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -11080,7 +11448,7 @@
       <c r="O305" s="3"/>
     </row>
     <row r="306" spans="2:15">
-      <c r="B306" s="38"/>
+      <c r="B306" s="23"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -11096,7 +11464,7 @@
       <c r="O306" s="3"/>
     </row>
     <row r="307" spans="2:15" ht="15" thickBot="1">
-      <c r="B307" s="39"/>
+      <c r="B307" s="29"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -11112,7 +11480,7 @@
       <c r="O307" s="3"/>
     </row>
     <row r="308" spans="2:15">
-      <c r="B308" s="44" t="s">
+      <c r="B308" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C308" s="3"/>
@@ -11130,7 +11498,7 @@
       <c r="O308" s="3"/>
     </row>
     <row r="309" spans="2:15">
-      <c r="B309" s="35"/>
+      <c r="B309" s="24"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7"/>
       <c r="E309" s="7"/>
@@ -11146,7 +11514,7 @@
       <c r="O309" s="3"/>
     </row>
     <row r="310" spans="2:15">
-      <c r="B310" s="35"/>
+      <c r="B310" s="24"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -11162,7 +11530,7 @@
       <c r="O310" s="3"/>
     </row>
     <row r="311" spans="2:15">
-      <c r="B311" s="35"/>
+      <c r="B311" s="24"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -11178,7 +11546,7 @@
       <c r="O311" s="3"/>
     </row>
     <row r="312" spans="2:15" ht="15" thickBot="1">
-      <c r="B312" s="45"/>
+      <c r="B312" s="31"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -11194,7 +11562,7 @@
       <c r="O312" s="3"/>
     </row>
     <row r="313" spans="2:15">
-      <c r="B313" s="46" t="s">
+      <c r="B313" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C313" s="3"/>
@@ -11212,7 +11580,7 @@
       <c r="O313" s="3"/>
     </row>
     <row r="314" spans="2:15">
-      <c r="B314" s="36"/>
+      <c r="B314" s="25"/>
       <c r="C314" s="7"/>
       <c r="D314" s="7"/>
       <c r="E314" s="7"/>
@@ -11228,7 +11596,7 @@
       <c r="O314" s="3"/>
     </row>
     <row r="315" spans="2:15">
-      <c r="B315" s="36"/>
+      <c r="B315" s="25"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -11244,7 +11612,7 @@
       <c r="O315" s="3"/>
     </row>
     <row r="316" spans="2:15">
-      <c r="B316" s="36"/>
+      <c r="B316" s="25"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -11260,7 +11628,7 @@
       <c r="O316" s="3"/>
     </row>
     <row r="317" spans="2:15" ht="15" thickBot="1">
-      <c r="B317" s="41"/>
+      <c r="B317" s="27"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -11272,11 +11640,11 @@
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
       <c r="M317" s="3"/>
-      <c r="N317" s="11"/>
-      <c r="O317" s="11"/>
+      <c r="N317" s="8"/>
+      <c r="O317" s="8"/>
     </row>
     <row r="318" spans="2:15">
-      <c r="B318" s="48" t="s">
+      <c r="B318" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C318" s="3"/>
@@ -11290,11 +11658,11 @@
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
       <c r="M318" s="3"/>
-      <c r="N318" s="13"/>
-      <c r="O318" s="13"/>
+      <c r="N318" s="9"/>
+      <c r="O318" s="9"/>
     </row>
     <row r="319" spans="2:15">
-      <c r="B319" s="38"/>
+      <c r="B319" s="23"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7"/>
       <c r="E319" s="7"/>
@@ -11310,7 +11678,7 @@
       <c r="O319" s="3"/>
     </row>
     <row r="320" spans="2:15">
-      <c r="B320" s="38"/>
+      <c r="B320" s="23"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -11326,7 +11694,7 @@
       <c r="O320" s="3"/>
     </row>
     <row r="321" spans="2:15">
-      <c r="B321" s="38"/>
+      <c r="B321" s="23"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -11342,7 +11710,7 @@
       <c r="O321" s="3"/>
     </row>
     <row r="322" spans="2:15" ht="15" thickBot="1">
-      <c r="B322" s="39"/>
+      <c r="B322" s="29"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -11354,11 +11722,11 @@
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
       <c r="M322" s="3"/>
-      <c r="N322" s="11"/>
-      <c r="O322" s="11"/>
+      <c r="N322" s="8"/>
+      <c r="O322" s="8"/>
     </row>
     <row r="323" spans="2:15">
-      <c r="B323" s="44" t="s">
+      <c r="B323" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C323" s="3"/>
@@ -11372,11 +11740,11 @@
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
       <c r="M323" s="3"/>
-      <c r="N323" s="13"/>
-      <c r="O323" s="13"/>
+      <c r="N323" s="9"/>
+      <c r="O323" s="9"/>
     </row>
     <row r="324" spans="2:15">
-      <c r="B324" s="35"/>
+      <c r="B324" s="24"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
@@ -11392,7 +11760,7 @@
       <c r="O324" s="3"/>
     </row>
     <row r="325" spans="2:15">
-      <c r="B325" s="35"/>
+      <c r="B325" s="24"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -11408,7 +11776,7 @@
       <c r="O325" s="3"/>
     </row>
     <row r="326" spans="2:15">
-      <c r="B326" s="35"/>
+      <c r="B326" s="24"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -11424,7 +11792,7 @@
       <c r="O326" s="3"/>
     </row>
     <row r="327" spans="2:15" ht="15" thickBot="1">
-      <c r="B327" s="45"/>
+      <c r="B327" s="31"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -11436,11 +11804,11 @@
       <c r="K327" s="3"/>
       <c r="L327" s="3"/>
       <c r="M327" s="3"/>
-      <c r="N327" s="11"/>
-      <c r="O327" s="11"/>
+      <c r="N327" s="8"/>
+      <c r="O327" s="8"/>
     </row>
     <row r="328" spans="2:15">
-      <c r="B328" s="46" t="s">
+      <c r="B328" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C328" s="3"/>
@@ -11453,12 +11821,12 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
       <c r="L328" s="3"/>
-      <c r="M328" s="13"/>
-      <c r="N328" s="13"/>
-      <c r="O328" s="13"/>
+      <c r="M328" s="9"/>
+      <c r="N328" s="9"/>
+      <c r="O328" s="9"/>
     </row>
     <row r="329" spans="2:15">
-      <c r="B329" s="36"/>
+      <c r="B329" s="25"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
@@ -11474,7 +11842,7 @@
       <c r="O329" s="3"/>
     </row>
     <row r="330" spans="2:15">
-      <c r="B330" s="36"/>
+      <c r="B330" s="25"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -11490,7 +11858,7 @@
       <c r="O330" s="3"/>
     </row>
     <row r="331" spans="2:15">
-      <c r="B331" s="36"/>
+      <c r="B331" s="25"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -11506,7 +11874,7 @@
       <c r="O331" s="3"/>
     </row>
     <row r="332" spans="2:15" ht="15" thickBot="1">
-      <c r="B332" s="41"/>
+      <c r="B332" s="27"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -11517,12 +11885,12 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
       <c r="L332" s="3"/>
-      <c r="M332" s="11"/>
-      <c r="N332" s="11"/>
-      <c r="O332" s="11"/>
+      <c r="M332" s="8"/>
+      <c r="N332" s="8"/>
+      <c r="O332" s="8"/>
     </row>
     <row r="333" spans="2:15">
-      <c r="B333" s="43" t="s">
+      <c r="B333" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C333" s="3"/>
@@ -11540,7 +11908,7 @@
       <c r="O333" s="7"/>
     </row>
     <row r="334" spans="2:15">
-      <c r="B334" s="38"/>
+      <c r="B334" s="23"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
@@ -11556,7 +11924,7 @@
       <c r="O334" s="3"/>
     </row>
     <row r="335" spans="2:15">
-      <c r="B335" s="38"/>
+      <c r="B335" s="23"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -11572,7 +11940,7 @@
       <c r="O335" s="3"/>
     </row>
     <row r="336" spans="2:15">
-      <c r="B336" s="38"/>
+      <c r="B336" s="23"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -11588,7 +11956,7 @@
       <c r="O336" s="3"/>
     </row>
     <row r="337" spans="2:15">
-      <c r="B337" s="38"/>
+      <c r="B337" s="23"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -11604,7 +11972,7 @@
       <c r="O337" s="3"/>
     </row>
     <row r="338" spans="2:15">
-      <c r="B338" s="35" t="s">
+      <c r="B338" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C338" s="3"/>
@@ -11622,7 +11990,7 @@
       <c r="O338" s="3"/>
     </row>
     <row r="339" spans="2:15">
-      <c r="B339" s="35"/>
+      <c r="B339" s="24"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7"/>
       <c r="E339" s="7"/>
@@ -11638,7 +12006,7 @@
       <c r="O339" s="3"/>
     </row>
     <row r="340" spans="2:15">
-      <c r="B340" s="35"/>
+      <c r="B340" s="24"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -11654,7 +12022,7 @@
       <c r="O340" s="3"/>
     </row>
     <row r="341" spans="2:15">
-      <c r="B341" s="35"/>
+      <c r="B341" s="24"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -11670,7 +12038,7 @@
       <c r="O341" s="3"/>
     </row>
     <row r="342" spans="2:15">
-      <c r="B342" s="35"/>
+      <c r="B342" s="24"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -11686,7 +12054,7 @@
       <c r="O342" s="3"/>
     </row>
     <row r="343" spans="2:15">
-      <c r="B343" s="36" t="s">
+      <c r="B343" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C343" s="3"/>
@@ -11704,7 +12072,7 @@
       <c r="O343" s="3"/>
     </row>
     <row r="344" spans="2:15">
-      <c r="B344" s="36"/>
+      <c r="B344" s="25"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7"/>
       <c r="E344" s="7"/>
@@ -11720,7 +12088,7 @@
       <c r="O344" s="3"/>
     </row>
     <row r="345" spans="2:15">
-      <c r="B345" s="36"/>
+      <c r="B345" s="25"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -11736,7 +12104,7 @@
       <c r="O345" s="3"/>
     </row>
     <row r="346" spans="2:15">
-      <c r="B346" s="36"/>
+      <c r="B346" s="25"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -11752,7 +12120,7 @@
       <c r="O346" s="3"/>
     </row>
     <row r="347" spans="2:15">
-      <c r="B347" s="36"/>
+      <c r="B347" s="25"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -11768,7 +12136,7 @@
       <c r="O347" s="3"/>
     </row>
     <row r="348" spans="2:15">
-      <c r="B348" s="38" t="s">
+      <c r="B348" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C348" s="3"/>
@@ -11786,7 +12154,7 @@
       <c r="O348" s="3"/>
     </row>
     <row r="349" spans="2:15">
-      <c r="B349" s="38"/>
+      <c r="B349" s="23"/>
       <c r="C349" s="7"/>
       <c r="D349" s="7"/>
       <c r="E349" s="7"/>
@@ -11802,7 +12170,7 @@
       <c r="O349" s="3"/>
     </row>
     <row r="350" spans="2:15">
-      <c r="B350" s="38"/>
+      <c r="B350" s="23"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -11818,7 +12186,7 @@
       <c r="O350" s="3"/>
     </row>
     <row r="351" spans="2:15">
-      <c r="B351" s="38"/>
+      <c r="B351" s="23"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -11834,7 +12202,7 @@
       <c r="O351" s="3"/>
     </row>
     <row r="352" spans="2:15">
-      <c r="B352" s="38"/>
+      <c r="B352" s="23"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -11850,7 +12218,7 @@
       <c r="O352" s="3"/>
     </row>
     <row r="353" spans="2:15">
-      <c r="B353" s="35" t="s">
+      <c r="B353" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C353" s="3"/>
@@ -11868,7 +12236,7 @@
       <c r="O353" s="3"/>
     </row>
     <row r="354" spans="2:15">
-      <c r="B354" s="35"/>
+      <c r="B354" s="24"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7"/>
       <c r="E354" s="7"/>
@@ -11884,7 +12252,7 @@
       <c r="O354" s="3"/>
     </row>
     <row r="355" spans="2:15">
-      <c r="B355" s="35"/>
+      <c r="B355" s="24"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -11900,7 +12268,7 @@
       <c r="O355" s="3"/>
     </row>
     <row r="356" spans="2:15">
-      <c r="B356" s="35"/>
+      <c r="B356" s="24"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -11916,7 +12284,7 @@
       <c r="O356" s="3"/>
     </row>
     <row r="357" spans="2:15">
-      <c r="B357" s="35"/>
+      <c r="B357" s="24"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -11932,7 +12300,7 @@
       <c r="O357" s="3"/>
     </row>
     <row r="358" spans="2:15">
-      <c r="B358" s="36" t="s">
+      <c r="B358" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C358" s="3"/>
@@ -11950,7 +12318,7 @@
       <c r="O358" s="3"/>
     </row>
     <row r="359" spans="2:15">
-      <c r="B359" s="36"/>
+      <c r="B359" s="25"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7"/>
       <c r="E359" s="7"/>
@@ -11966,7 +12334,7 @@
       <c r="O359" s="3"/>
     </row>
     <row r="360" spans="2:15">
-      <c r="B360" s="36"/>
+      <c r="B360" s="25"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -11982,7 +12350,7 @@
       <c r="O360" s="3"/>
     </row>
     <row r="361" spans="2:15">
-      <c r="B361" s="36"/>
+      <c r="B361" s="25"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -11998,7 +12366,7 @@
       <c r="O361" s="3"/>
     </row>
     <row r="362" spans="2:15">
-      <c r="B362" s="36"/>
+      <c r="B362" s="25"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -12014,7 +12382,7 @@
       <c r="O362" s="3"/>
     </row>
     <row r="363" spans="2:15">
-      <c r="B363" s="38" t="s">
+      <c r="B363" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C363" s="3"/>
@@ -12032,7 +12400,7 @@
       <c r="O363" s="3"/>
     </row>
     <row r="364" spans="2:15">
-      <c r="B364" s="38"/>
+      <c r="B364" s="23"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7"/>
       <c r="E364" s="7"/>
@@ -12048,7 +12416,7 @@
       <c r="O364" s="3"/>
     </row>
     <row r="365" spans="2:15">
-      <c r="B365" s="38"/>
+      <c r="B365" s="23"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -12064,7 +12432,7 @@
       <c r="O365" s="3"/>
     </row>
     <row r="366" spans="2:15">
-      <c r="B366" s="38"/>
+      <c r="B366" s="23"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -12080,7 +12448,7 @@
       <c r="O366" s="3"/>
     </row>
     <row r="367" spans="2:15">
-      <c r="B367" s="38"/>
+      <c r="B367" s="23"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -12096,7 +12464,7 @@
       <c r="O367" s="3"/>
     </row>
     <row r="368" spans="2:15">
-      <c r="B368" s="35" t="s">
+      <c r="B368" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C368" s="3"/>
@@ -12114,7 +12482,7 @@
       <c r="O368" s="3"/>
     </row>
     <row r="369" spans="2:15">
-      <c r="B369" s="35"/>
+      <c r="B369" s="24"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7"/>
       <c r="E369" s="7"/>
@@ -12130,7 +12498,7 @@
       <c r="O369" s="3"/>
     </row>
     <row r="370" spans="2:15">
-      <c r="B370" s="35"/>
+      <c r="B370" s="24"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -12146,7 +12514,7 @@
       <c r="O370" s="3"/>
     </row>
     <row r="371" spans="2:15">
-      <c r="B371" s="35"/>
+      <c r="B371" s="24"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -12162,7 +12530,7 @@
       <c r="O371" s="3"/>
     </row>
     <row r="372" spans="2:15">
-      <c r="B372" s="35"/>
+      <c r="B372" s="24"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -12178,7 +12546,7 @@
       <c r="O372" s="3"/>
     </row>
     <row r="373" spans="2:15">
-      <c r="B373" s="36" t="s">
+      <c r="B373" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C373" s="3"/>
@@ -12196,7 +12564,7 @@
       <c r="O373" s="3"/>
     </row>
     <row r="374" spans="2:15">
-      <c r="B374" s="36"/>
+      <c r="B374" s="25"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7"/>
       <c r="E374" s="7"/>
@@ -12212,7 +12580,7 @@
       <c r="O374" s="3"/>
     </row>
     <row r="375" spans="2:15">
-      <c r="B375" s="36"/>
+      <c r="B375" s="25"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -12228,7 +12596,7 @@
       <c r="O375" s="3"/>
     </row>
     <row r="376" spans="2:15">
-      <c r="B376" s="36"/>
+      <c r="B376" s="25"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -12244,7 +12612,7 @@
       <c r="O376" s="3"/>
     </row>
     <row r="377" spans="2:15">
-      <c r="B377" s="36"/>
+      <c r="B377" s="25"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -12260,7 +12628,7 @@
       <c r="O377" s="3"/>
     </row>
     <row r="378" spans="2:15">
-      <c r="B378" s="38" t="s">
+      <c r="B378" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C378" s="3"/>
@@ -12278,7 +12646,7 @@
       <c r="O378" s="3"/>
     </row>
     <row r="379" spans="2:15">
-      <c r="B379" s="38"/>
+      <c r="B379" s="23"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7"/>
       <c r="E379" s="7"/>
@@ -12294,7 +12662,7 @@
       <c r="O379" s="3"/>
     </row>
     <row r="380" spans="2:15">
-      <c r="B380" s="38"/>
+      <c r="B380" s="23"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
       <c r="E380" s="3"/>
@@ -12310,7 +12678,7 @@
       <c r="O380" s="3"/>
     </row>
     <row r="381" spans="2:15">
-      <c r="B381" s="38"/>
+      <c r="B381" s="23"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
       <c r="E381" s="3"/>
@@ -12326,7 +12694,7 @@
       <c r="O381" s="3"/>
     </row>
     <row r="382" spans="2:15">
-      <c r="B382" s="38"/>
+      <c r="B382" s="23"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
       <c r="E382" s="3"/>
@@ -12342,7 +12710,7 @@
       <c r="O382" s="3"/>
     </row>
     <row r="383" spans="2:15">
-      <c r="B383" s="35" t="s">
+      <c r="B383" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C383" s="3"/>
@@ -12360,7 +12728,7 @@
       <c r="O383" s="3"/>
     </row>
     <row r="384" spans="2:15">
-      <c r="B384" s="35"/>
+      <c r="B384" s="24"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7"/>
       <c r="E384" s="7"/>
@@ -12376,7 +12744,7 @@
       <c r="O384" s="3"/>
     </row>
     <row r="385" spans="2:15">
-      <c r="B385" s="35"/>
+      <c r="B385" s="24"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
       <c r="E385" s="3"/>
@@ -12392,7 +12760,7 @@
       <c r="O385" s="3"/>
     </row>
     <row r="386" spans="2:15">
-      <c r="B386" s="35"/>
+      <c r="B386" s="24"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
       <c r="E386" s="3"/>
@@ -12408,7 +12776,7 @@
       <c r="O386" s="3"/>
     </row>
     <row r="387" spans="2:15">
-      <c r="B387" s="35"/>
+      <c r="B387" s="24"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
       <c r="E387" s="3"/>
@@ -12424,7 +12792,7 @@
       <c r="O387" s="3"/>
     </row>
     <row r="388" spans="2:15">
-      <c r="B388" s="49" t="s">
+      <c r="B388" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C388" s="4"/>
@@ -12442,7 +12810,7 @@
       <c r="O388" s="4"/>
     </row>
     <row r="389" spans="2:15">
-      <c r="B389" s="49"/>
+      <c r="B389" s="22"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
@@ -12458,7 +12826,7 @@
       <c r="O389" s="4"/>
     </row>
     <row r="390" spans="2:15">
-      <c r="B390" s="49"/>
+      <c r="B390" s="22"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
@@ -12552,7 +12920,7 @@
       </c>
     </row>
     <row r="397" spans="2:15">
-      <c r="B397" s="36" t="s">
+      <c r="B397" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C397" s="3">
@@ -12572,7 +12940,7 @@
       <c r="O397" s="3"/>
     </row>
     <row r="398" spans="2:15">
-      <c r="B398" s="36"/>
+      <c r="B398" s="25"/>
       <c r="C398" s="7">
         <v>49500</v>
       </c>
@@ -12590,7 +12958,7 @@
       <c r="O398" s="7"/>
     </row>
     <row r="399" spans="2:15">
-      <c r="B399" s="36"/>
+      <c r="B399" s="25"/>
       <c r="C399" s="3">
         <v>51000</v>
       </c>
@@ -12608,7 +12976,7 @@
       <c r="O399" s="3"/>
     </row>
     <row r="400" spans="2:15">
-      <c r="B400" s="36"/>
+      <c r="B400" s="25"/>
       <c r="C400" s="3">
         <v>52500</v>
       </c>
@@ -12626,7 +12994,7 @@
       <c r="O400" s="3"/>
     </row>
     <row r="401" spans="2:15" ht="15" thickBot="1">
-      <c r="B401" s="41"/>
+      <c r="B401" s="27"/>
       <c r="C401" s="3">
         <v>54000</v>
       </c>
@@ -12644,7 +13012,7 @@
       <c r="O401" s="3"/>
     </row>
     <row r="402" spans="2:15">
-      <c r="B402" s="43" t="s">
+      <c r="B402" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C402" s="3"/>
@@ -12662,7 +13030,7 @@
       <c r="O402" s="3"/>
     </row>
     <row r="403" spans="2:15">
-      <c r="B403" s="38"/>
+      <c r="B403" s="23"/>
       <c r="C403" s="7"/>
       <c r="D403" s="7"/>
       <c r="E403" s="7"/>
@@ -12678,7 +13046,7 @@
       <c r="O403" s="3"/>
     </row>
     <row r="404" spans="2:15">
-      <c r="B404" s="38"/>
+      <c r="B404" s="23"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
       <c r="E404" s="3"/>
@@ -12694,7 +13062,7 @@
       <c r="O404" s="3"/>
     </row>
     <row r="405" spans="2:15">
-      <c r="B405" s="38"/>
+      <c r="B405" s="23"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
       <c r="E405" s="3"/>
@@ -12710,7 +13078,7 @@
       <c r="O405" s="3"/>
     </row>
     <row r="406" spans="2:15" ht="15" thickBot="1">
-      <c r="B406" s="39"/>
+      <c r="B406" s="29"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
       <c r="E406" s="3"/>
@@ -12726,7 +13094,7 @@
       <c r="O406" s="3"/>
     </row>
     <row r="407" spans="2:15">
-      <c r="B407" s="44" t="s">
+      <c r="B407" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C407" s="3"/>
@@ -12744,7 +13112,7 @@
       <c r="O407" s="3"/>
     </row>
     <row r="408" spans="2:15">
-      <c r="B408" s="35"/>
+      <c r="B408" s="24"/>
       <c r="C408" s="7"/>
       <c r="D408" s="7"/>
       <c r="E408" s="7"/>
@@ -12760,7 +13128,7 @@
       <c r="O408" s="3"/>
     </row>
     <row r="409" spans="2:15">
-      <c r="B409" s="35"/>
+      <c r="B409" s="24"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="3"/>
@@ -12776,7 +13144,7 @@
       <c r="O409" s="3"/>
     </row>
     <row r="410" spans="2:15">
-      <c r="B410" s="35"/>
+      <c r="B410" s="24"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
       <c r="E410" s="3"/>
@@ -12792,7 +13160,7 @@
       <c r="O410" s="3"/>
     </row>
     <row r="411" spans="2:15" ht="15" thickBot="1">
-      <c r="B411" s="45"/>
+      <c r="B411" s="31"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
       <c r="E411" s="3"/>
@@ -12808,7 +13176,7 @@
       <c r="O411" s="3"/>
     </row>
     <row r="412" spans="2:15">
-      <c r="B412" s="46" t="s">
+      <c r="B412" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C412" s="3"/>
@@ -12826,7 +13194,7 @@
       <c r="O412" s="3"/>
     </row>
     <row r="413" spans="2:15">
-      <c r="B413" s="36"/>
+      <c r="B413" s="25"/>
       <c r="C413" s="7"/>
       <c r="D413" s="7"/>
       <c r="E413" s="7"/>
@@ -12842,7 +13210,7 @@
       <c r="O413" s="3"/>
     </row>
     <row r="414" spans="2:15">
-      <c r="B414" s="36"/>
+      <c r="B414" s="25"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
       <c r="E414" s="3"/>
@@ -12858,7 +13226,7 @@
       <c r="O414" s="3"/>
     </row>
     <row r="415" spans="2:15">
-      <c r="B415" s="36"/>
+      <c r="B415" s="25"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
       <c r="E415" s="3"/>
@@ -12874,7 +13242,7 @@
       <c r="O415" s="3"/>
     </row>
     <row r="416" spans="2:15" ht="15" thickBot="1">
-      <c r="B416" s="41"/>
+      <c r="B416" s="27"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
       <c r="E416" s="3"/>
@@ -12886,11 +13254,11 @@
       <c r="K416" s="3"/>
       <c r="L416" s="3"/>
       <c r="M416" s="3"/>
-      <c r="N416" s="11"/>
-      <c r="O416" s="11"/>
+      <c r="N416" s="8"/>
+      <c r="O416" s="8"/>
     </row>
     <row r="417" spans="2:15">
-      <c r="B417" s="48" t="s">
+      <c r="B417" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C417" s="3"/>
@@ -12904,11 +13272,11 @@
       <c r="K417" s="3"/>
       <c r="L417" s="3"/>
       <c r="M417" s="3"/>
-      <c r="N417" s="13"/>
-      <c r="O417" s="13"/>
+      <c r="N417" s="9"/>
+      <c r="O417" s="9"/>
     </row>
     <row r="418" spans="2:15">
-      <c r="B418" s="38"/>
+      <c r="B418" s="23"/>
       <c r="C418" s="7"/>
       <c r="D418" s="7"/>
       <c r="E418" s="7"/>
@@ -12924,7 +13292,7 @@
       <c r="O418" s="3"/>
     </row>
     <row r="419" spans="2:15">
-      <c r="B419" s="38"/>
+      <c r="B419" s="23"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
@@ -12940,7 +13308,7 @@
       <c r="O419" s="3"/>
     </row>
     <row r="420" spans="2:15">
-      <c r="B420" s="38"/>
+      <c r="B420" s="23"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="3"/>
@@ -12956,7 +13324,7 @@
       <c r="O420" s="3"/>
     </row>
     <row r="421" spans="2:15" ht="15" thickBot="1">
-      <c r="B421" s="39"/>
+      <c r="B421" s="29"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
       <c r="E421" s="3"/>
@@ -12968,11 +13336,11 @@
       <c r="K421" s="3"/>
       <c r="L421" s="3"/>
       <c r="M421" s="3"/>
-      <c r="N421" s="11"/>
-      <c r="O421" s="11"/>
+      <c r="N421" s="8"/>
+      <c r="O421" s="8"/>
     </row>
     <row r="422" spans="2:15">
-      <c r="B422" s="44" t="s">
+      <c r="B422" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C422" s="3"/>
@@ -12986,11 +13354,11 @@
       <c r="K422" s="3"/>
       <c r="L422" s="3"/>
       <c r="M422" s="3"/>
-      <c r="N422" s="13"/>
-      <c r="O422" s="13"/>
+      <c r="N422" s="9"/>
+      <c r="O422" s="9"/>
     </row>
     <row r="423" spans="2:15">
-      <c r="B423" s="35"/>
+      <c r="B423" s="24"/>
       <c r="C423" s="7"/>
       <c r="D423" s="7"/>
       <c r="E423" s="7"/>
@@ -13006,7 +13374,7 @@
       <c r="O423" s="3"/>
     </row>
     <row r="424" spans="2:15">
-      <c r="B424" s="35"/>
+      <c r="B424" s="24"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
       <c r="E424" s="3"/>
@@ -13022,7 +13390,7 @@
       <c r="O424" s="3"/>
     </row>
     <row r="425" spans="2:15">
-      <c r="B425" s="35"/>
+      <c r="B425" s="24"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="3"/>
@@ -13038,7 +13406,7 @@
       <c r="O425" s="3"/>
     </row>
     <row r="426" spans="2:15" ht="15" thickBot="1">
-      <c r="B426" s="45"/>
+      <c r="B426" s="31"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
       <c r="E426" s="3"/>
@@ -13050,11 +13418,11 @@
       <c r="K426" s="3"/>
       <c r="L426" s="3"/>
       <c r="M426" s="3"/>
-      <c r="N426" s="11"/>
-      <c r="O426" s="11"/>
+      <c r="N426" s="8"/>
+      <c r="O426" s="8"/>
     </row>
     <row r="427" spans="2:15">
-      <c r="B427" s="46" t="s">
+      <c r="B427" s="26" t="s">
         <v>2</v>
       </c>
       <c r="C427" s="3"/>
@@ -13067,12 +13435,12 @@
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
       <c r="L427" s="3"/>
-      <c r="M427" s="13"/>
-      <c r="N427" s="13"/>
-      <c r="O427" s="13"/>
+      <c r="M427" s="9"/>
+      <c r="N427" s="9"/>
+      <c r="O427" s="9"/>
     </row>
     <row r="428" spans="2:15">
-      <c r="B428" s="36"/>
+      <c r="B428" s="25"/>
       <c r="C428" s="7"/>
       <c r="D428" s="7"/>
       <c r="E428" s="7"/>
@@ -13088,7 +13456,7 @@
       <c r="O428" s="3"/>
     </row>
     <row r="429" spans="2:15">
-      <c r="B429" s="36"/>
+      <c r="B429" s="25"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
       <c r="E429" s="3"/>
@@ -13104,7 +13472,7 @@
       <c r="O429" s="3"/>
     </row>
     <row r="430" spans="2:15">
-      <c r="B430" s="36"/>
+      <c r="B430" s="25"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
@@ -13120,7 +13488,7 @@
       <c r="O430" s="3"/>
     </row>
     <row r="431" spans="2:15" ht="15" thickBot="1">
-      <c r="B431" s="41"/>
+      <c r="B431" s="27"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
@@ -13131,12 +13499,12 @@
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
       <c r="L431" s="3"/>
-      <c r="M431" s="11"/>
-      <c r="N431" s="11"/>
-      <c r="O431" s="11"/>
+      <c r="M431" s="8"/>
+      <c r="N431" s="8"/>
+      <c r="O431" s="8"/>
     </row>
     <row r="432" spans="2:15">
-      <c r="B432" s="43" t="s">
+      <c r="B432" s="32" t="s">
         <v>19</v>
       </c>
       <c r="C432" s="3"/>
@@ -13154,7 +13522,7 @@
       <c r="O432" s="7"/>
     </row>
     <row r="433" spans="2:15">
-      <c r="B433" s="38"/>
+      <c r="B433" s="23"/>
       <c r="C433" s="7"/>
       <c r="D433" s="7"/>
       <c r="E433" s="7"/>
@@ -13170,7 +13538,7 @@
       <c r="O433" s="3"/>
     </row>
     <row r="434" spans="2:15">
-      <c r="B434" s="38"/>
+      <c r="B434" s="23"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
       <c r="E434" s="3"/>
@@ -13186,7 +13554,7 @@
       <c r="O434" s="3"/>
     </row>
     <row r="435" spans="2:15">
-      <c r="B435" s="38"/>
+      <c r="B435" s="23"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="3"/>
@@ -13202,7 +13570,7 @@
       <c r="O435" s="3"/>
     </row>
     <row r="436" spans="2:15">
-      <c r="B436" s="38"/>
+      <c r="B436" s="23"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
       <c r="E436" s="3"/>
@@ -13218,7 +13586,7 @@
       <c r="O436" s="3"/>
     </row>
     <row r="437" spans="2:15">
-      <c r="B437" s="35" t="s">
+      <c r="B437" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C437" s="3"/>
@@ -13236,7 +13604,7 @@
       <c r="O437" s="3"/>
     </row>
     <row r="438" spans="2:15">
-      <c r="B438" s="35"/>
+      <c r="B438" s="24"/>
       <c r="C438" s="7"/>
       <c r="D438" s="7"/>
       <c r="E438" s="7"/>
@@ -13252,7 +13620,7 @@
       <c r="O438" s="3"/>
     </row>
     <row r="439" spans="2:15">
-      <c r="B439" s="35"/>
+      <c r="B439" s="24"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
       <c r="E439" s="3"/>
@@ -13268,7 +13636,7 @@
       <c r="O439" s="3"/>
     </row>
     <row r="440" spans="2:15">
-      <c r="B440" s="35"/>
+      <c r="B440" s="24"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
       <c r="E440" s="3"/>
@@ -13284,7 +13652,7 @@
       <c r="O440" s="3"/>
     </row>
     <row r="441" spans="2:15">
-      <c r="B441" s="35"/>
+      <c r="B441" s="24"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
       <c r="E441" s="3"/>
@@ -13300,7 +13668,7 @@
       <c r="O441" s="3"/>
     </row>
     <row r="442" spans="2:15">
-      <c r="B442" s="36" t="s">
+      <c r="B442" s="25" t="s">
         <v>24</v>
       </c>
       <c r="C442" s="3"/>
@@ -13318,7 +13686,7 @@
       <c r="O442" s="3"/>
     </row>
     <row r="443" spans="2:15">
-      <c r="B443" s="36"/>
+      <c r="B443" s="25"/>
       <c r="C443" s="7"/>
       <c r="D443" s="7"/>
       <c r="E443" s="7"/>
@@ -13334,7 +13702,7 @@
       <c r="O443" s="3"/>
     </row>
     <row r="444" spans="2:15">
-      <c r="B444" s="36"/>
+      <c r="B444" s="25"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
       <c r="E444" s="3"/>
@@ -13350,7 +13718,7 @@
       <c r="O444" s="3"/>
     </row>
     <row r="445" spans="2:15">
-      <c r="B445" s="36"/>
+      <c r="B445" s="25"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
       <c r="E445" s="3"/>
@@ -13366,7 +13734,7 @@
       <c r="O445" s="3"/>
     </row>
     <row r="446" spans="2:15">
-      <c r="B446" s="36"/>
+      <c r="B446" s="25"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
       <c r="E446" s="3"/>
@@ -13382,7 +13750,7 @@
       <c r="O446" s="3"/>
     </row>
     <row r="447" spans="2:15">
-      <c r="B447" s="38" t="s">
+      <c r="B447" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C447" s="3"/>
@@ -13400,7 +13768,7 @@
       <c r="O447" s="3"/>
     </row>
     <row r="448" spans="2:15">
-      <c r="B448" s="38"/>
+      <c r="B448" s="23"/>
       <c r="C448" s="7"/>
       <c r="D448" s="7"/>
       <c r="E448" s="7"/>
@@ -13416,7 +13784,7 @@
       <c r="O448" s="3"/>
     </row>
     <row r="449" spans="2:15">
-      <c r="B449" s="38"/>
+      <c r="B449" s="23"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
       <c r="E449" s="3"/>
@@ -13432,7 +13800,7 @@
       <c r="O449" s="3"/>
     </row>
     <row r="450" spans="2:15">
-      <c r="B450" s="38"/>
+      <c r="B450" s="23"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="3"/>
@@ -13448,7 +13816,7 @@
       <c r="O450" s="3"/>
     </row>
     <row r="451" spans="2:15">
-      <c r="B451" s="38"/>
+      <c r="B451" s="23"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
       <c r="E451" s="3"/>
@@ -13464,7 +13832,7 @@
       <c r="O451" s="3"/>
     </row>
     <row r="452" spans="2:15">
-      <c r="B452" s="35" t="s">
+      <c r="B452" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C452" s="3"/>
@@ -13482,7 +13850,7 @@
       <c r="O452" s="3"/>
     </row>
     <row r="453" spans="2:15">
-      <c r="B453" s="35"/>
+      <c r="B453" s="24"/>
       <c r="C453" s="7"/>
       <c r="D453" s="7"/>
       <c r="E453" s="7"/>
@@ -13498,7 +13866,7 @@
       <c r="O453" s="3"/>
     </row>
     <row r="454" spans="2:15">
-      <c r="B454" s="35"/>
+      <c r="B454" s="24"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
       <c r="E454" s="3"/>
@@ -13514,7 +13882,7 @@
       <c r="O454" s="3"/>
     </row>
     <row r="455" spans="2:15">
-      <c r="B455" s="35"/>
+      <c r="B455" s="24"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
       <c r="E455" s="3"/>
@@ -13530,7 +13898,7 @@
       <c r="O455" s="3"/>
     </row>
     <row r="456" spans="2:15">
-      <c r="B456" s="35"/>
+      <c r="B456" s="24"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
       <c r="E456" s="3"/>
@@ -13546,7 +13914,7 @@
       <c r="O456" s="3"/>
     </row>
     <row r="457" spans="2:15">
-      <c r="B457" s="36" t="s">
+      <c r="B457" s="25" t="s">
         <v>27</v>
       </c>
       <c r="C457" s="3"/>
@@ -13564,7 +13932,7 @@
       <c r="O457" s="3"/>
     </row>
     <row r="458" spans="2:15">
-      <c r="B458" s="36"/>
+      <c r="B458" s="25"/>
       <c r="C458" s="7"/>
       <c r="D458" s="7"/>
       <c r="E458" s="7"/>
@@ -13580,7 +13948,7 @@
       <c r="O458" s="3"/>
     </row>
     <row r="459" spans="2:15">
-      <c r="B459" s="36"/>
+      <c r="B459" s="25"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -13596,7 +13964,7 @@
       <c r="O459" s="3"/>
     </row>
     <row r="460" spans="2:15">
-      <c r="B460" s="36"/>
+      <c r="B460" s="25"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
       <c r="E460" s="3"/>
@@ -13612,7 +13980,7 @@
       <c r="O460" s="3"/>
     </row>
     <row r="461" spans="2:15">
-      <c r="B461" s="36"/>
+      <c r="B461" s="25"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
       <c r="E461" s="3"/>
@@ -13628,7 +13996,7 @@
       <c r="O461" s="3"/>
     </row>
     <row r="462" spans="2:15">
-      <c r="B462" s="38" t="s">
+      <c r="B462" s="23" t="s">
         <v>28</v>
       </c>
       <c r="C462" s="3"/>
@@ -13646,7 +14014,7 @@
       <c r="O462" s="3"/>
     </row>
     <row r="463" spans="2:15">
-      <c r="B463" s="38"/>
+      <c r="B463" s="23"/>
       <c r="C463" s="7"/>
       <c r="D463" s="7"/>
       <c r="E463" s="7"/>
@@ -13662,7 +14030,7 @@
       <c r="O463" s="3"/>
     </row>
     <row r="464" spans="2:15">
-      <c r="B464" s="38"/>
+      <c r="B464" s="23"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
@@ -13678,7 +14046,7 @@
       <c r="O464" s="3"/>
     </row>
     <row r="465" spans="2:15">
-      <c r="B465" s="38"/>
+      <c r="B465" s="23"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
       <c r="E465" s="3"/>
@@ -13694,7 +14062,7 @@
       <c r="O465" s="3"/>
     </row>
     <row r="466" spans="2:15">
-      <c r="B466" s="38"/>
+      <c r="B466" s="23"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
       <c r="E466" s="3"/>
@@ -13710,7 +14078,7 @@
       <c r="O466" s="3"/>
     </row>
     <row r="467" spans="2:15">
-      <c r="B467" s="35" t="s">
+      <c r="B467" s="24" t="s">
         <v>29</v>
       </c>
       <c r="C467" s="3"/>
@@ -13728,7 +14096,7 @@
       <c r="O467" s="3"/>
     </row>
     <row r="468" spans="2:15">
-      <c r="B468" s="35"/>
+      <c r="B468" s="24"/>
       <c r="C468" s="7"/>
       <c r="D468" s="7"/>
       <c r="E468" s="7"/>
@@ -13744,7 +14112,7 @@
       <c r="O468" s="3"/>
     </row>
     <row r="469" spans="2:15">
-      <c r="B469" s="35"/>
+      <c r="B469" s="24"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
       <c r="E469" s="3"/>
@@ -13760,7 +14128,7 @@
       <c r="O469" s="3"/>
     </row>
     <row r="470" spans="2:15">
-      <c r="B470" s="35"/>
+      <c r="B470" s="24"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
       <c r="E470" s="3"/>
@@ -13776,7 +14144,7 @@
       <c r="O470" s="3"/>
     </row>
     <row r="471" spans="2:15">
-      <c r="B471" s="35"/>
+      <c r="B471" s="24"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
       <c r="E471" s="3"/>
@@ -13792,7 +14160,7 @@
       <c r="O471" s="3"/>
     </row>
     <row r="472" spans="2:15">
-      <c r="B472" s="36" t="s">
+      <c r="B472" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C472" s="3"/>
@@ -13810,7 +14178,7 @@
       <c r="O472" s="3"/>
     </row>
     <row r="473" spans="2:15">
-      <c r="B473" s="36"/>
+      <c r="B473" s="25"/>
       <c r="C473" s="7"/>
       <c r="D473" s="7"/>
       <c r="E473" s="7"/>
@@ -13826,7 +14194,7 @@
       <c r="O473" s="3"/>
     </row>
     <row r="474" spans="2:15">
-      <c r="B474" s="36"/>
+      <c r="B474" s="25"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
       <c r="E474" s="3"/>
@@ -13842,7 +14210,7 @@
       <c r="O474" s="3"/>
     </row>
     <row r="475" spans="2:15">
-      <c r="B475" s="36"/>
+      <c r="B475" s="25"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
       <c r="E475" s="3"/>
@@ -13858,7 +14226,7 @@
       <c r="O475" s="3"/>
     </row>
     <row r="476" spans="2:15">
-      <c r="B476" s="36"/>
+      <c r="B476" s="25"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
       <c r="E476" s="3"/>
@@ -13874,7 +14242,7 @@
       <c r="O476" s="3"/>
     </row>
     <row r="477" spans="2:15">
-      <c r="B477" s="38" t="s">
+      <c r="B477" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C477" s="3"/>
@@ -13892,7 +14260,7 @@
       <c r="O477" s="3"/>
     </row>
     <row r="478" spans="2:15">
-      <c r="B478" s="38"/>
+      <c r="B478" s="23"/>
       <c r="C478" s="7"/>
       <c r="D478" s="7"/>
       <c r="E478" s="7"/>
@@ -13908,7 +14276,7 @@
       <c r="O478" s="3"/>
     </row>
     <row r="479" spans="2:15">
-      <c r="B479" s="38"/>
+      <c r="B479" s="23"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
       <c r="E479" s="3"/>
@@ -13924,7 +14292,7 @@
       <c r="O479" s="3"/>
     </row>
     <row r="480" spans="2:15">
-      <c r="B480" s="38"/>
+      <c r="B480" s="23"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
       <c r="E480" s="3"/>
@@ -13940,7 +14308,7 @@
       <c r="O480" s="3"/>
     </row>
     <row r="481" spans="2:15">
-      <c r="B481" s="38"/>
+      <c r="B481" s="23"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
       <c r="E481" s="3"/>
@@ -13956,7 +14324,7 @@
       <c r="O481" s="3"/>
     </row>
     <row r="482" spans="2:15">
-      <c r="B482" s="35" t="s">
+      <c r="B482" s="24" t="s">
         <v>23</v>
       </c>
       <c r="C482" s="3"/>
@@ -13974,7 +14342,7 @@
       <c r="O482" s="3"/>
     </row>
     <row r="483" spans="2:15">
-      <c r="B483" s="35"/>
+      <c r="B483" s="24"/>
       <c r="C483" s="7"/>
       <c r="D483" s="7"/>
       <c r="E483" s="7"/>
@@ -13990,7 +14358,7 @@
       <c r="O483" s="3"/>
     </row>
     <row r="484" spans="2:15">
-      <c r="B484" s="35"/>
+      <c r="B484" s="24"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
       <c r="E484" s="3"/>
@@ -14006,7 +14374,7 @@
       <c r="O484" s="3"/>
     </row>
     <row r="485" spans="2:15">
-      <c r="B485" s="35"/>
+      <c r="B485" s="24"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
       <c r="E485" s="3"/>
@@ -14022,7 +14390,7 @@
       <c r="O485" s="3"/>
     </row>
     <row r="486" spans="2:15">
-      <c r="B486" s="35"/>
+      <c r="B486" s="24"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
       <c r="E486" s="3"/>
@@ -14038,7 +14406,7 @@
       <c r="O486" s="3"/>
     </row>
     <row r="487" spans="2:15">
-      <c r="B487" s="49" t="s">
+      <c r="B487" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C487" s="4"/>
@@ -14056,7 +14424,7 @@
       <c r="O487" s="4"/>
     </row>
     <row r="488" spans="2:15">
-      <c r="B488" s="49"/>
+      <c r="B488" s="22"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
@@ -14072,7 +14440,7 @@
       <c r="O488" s="4"/>
     </row>
     <row r="489" spans="2:15">
-      <c r="B489" s="49"/>
+      <c r="B489" s="22"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
@@ -14123,80 +14491,11 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B487:B489"/>
-    <mergeCell ref="B462:B466"/>
-    <mergeCell ref="B467:B471"/>
-    <mergeCell ref="B472:B476"/>
-    <mergeCell ref="B477:B481"/>
-    <mergeCell ref="B482:B486"/>
-    <mergeCell ref="B437:B441"/>
-    <mergeCell ref="B442:B446"/>
-    <mergeCell ref="B447:B451"/>
-    <mergeCell ref="B452:B456"/>
-    <mergeCell ref="B457:B461"/>
-    <mergeCell ref="B412:B416"/>
-    <mergeCell ref="B417:B421"/>
-    <mergeCell ref="B422:B426"/>
-    <mergeCell ref="B427:B431"/>
-    <mergeCell ref="B432:B436"/>
-    <mergeCell ref="B383:B387"/>
-    <mergeCell ref="B388:B390"/>
-    <mergeCell ref="B397:B401"/>
-    <mergeCell ref="B402:B406"/>
-    <mergeCell ref="B407:B411"/>
-    <mergeCell ref="B318:B322"/>
-    <mergeCell ref="B363:B367"/>
-    <mergeCell ref="B368:B372"/>
-    <mergeCell ref="B373:B377"/>
-    <mergeCell ref="B378:B382"/>
-    <mergeCell ref="B348:B352"/>
-    <mergeCell ref="B353:B357"/>
-    <mergeCell ref="B358:B362"/>
-    <mergeCell ref="B275:B279"/>
-    <mergeCell ref="B280:B284"/>
-    <mergeCell ref="B285:B289"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="B323:B327"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="B338:B342"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="B298:B302"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="B308:B312"/>
-    <mergeCell ref="B313:B317"/>
-    <mergeCell ref="B250:B254"/>
-    <mergeCell ref="B255:B259"/>
-    <mergeCell ref="B260:B264"/>
-    <mergeCell ref="B265:B269"/>
-    <mergeCell ref="B270:B274"/>
-    <mergeCell ref="B225:B229"/>
-    <mergeCell ref="B230:B234"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="B240:B244"/>
-    <mergeCell ref="B245:B249"/>
-    <mergeCell ref="B200:B204"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="B210:B214"/>
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B184:B188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B168"/>
-    <mergeCell ref="B169:B173"/>
-    <mergeCell ref="B174:B178"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B104:B108"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B119:B123"/>
-    <mergeCell ref="B124:B128"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B139:B143"/>
-    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B63:B67"/>
     <mergeCell ref="B149:B153"/>
     <mergeCell ref="B154:B158"/>
     <mergeCell ref="B3:B7"/>
@@ -14213,11 +14512,80 @@
     <mergeCell ref="B68:B72"/>
     <mergeCell ref="B73:B77"/>
     <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B104:B108"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B184:B188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B168"/>
+    <mergeCell ref="B169:B173"/>
+    <mergeCell ref="B174:B178"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B200:B204"/>
+    <mergeCell ref="B205:B209"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="B230:B234"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="B240:B244"/>
+    <mergeCell ref="B245:B249"/>
+    <mergeCell ref="B250:B254"/>
+    <mergeCell ref="B255:B259"/>
+    <mergeCell ref="B260:B264"/>
+    <mergeCell ref="B265:B269"/>
+    <mergeCell ref="B270:B274"/>
+    <mergeCell ref="B275:B279"/>
+    <mergeCell ref="B280:B284"/>
+    <mergeCell ref="B285:B289"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="B323:B327"/>
+    <mergeCell ref="B298:B302"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="B313:B317"/>
+    <mergeCell ref="B318:B322"/>
+    <mergeCell ref="B363:B367"/>
+    <mergeCell ref="B368:B372"/>
+    <mergeCell ref="B373:B377"/>
+    <mergeCell ref="B378:B382"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="B353:B357"/>
+    <mergeCell ref="B358:B362"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="B383:B387"/>
+    <mergeCell ref="B388:B390"/>
+    <mergeCell ref="B397:B401"/>
+    <mergeCell ref="B402:B406"/>
+    <mergeCell ref="B407:B411"/>
+    <mergeCell ref="B412:B416"/>
+    <mergeCell ref="B417:B421"/>
+    <mergeCell ref="B422:B426"/>
+    <mergeCell ref="B427:B431"/>
+    <mergeCell ref="B432:B436"/>
+    <mergeCell ref="B437:B441"/>
+    <mergeCell ref="B442:B446"/>
+    <mergeCell ref="B447:B451"/>
+    <mergeCell ref="B452:B456"/>
+    <mergeCell ref="B457:B461"/>
+    <mergeCell ref="B487:B489"/>
+    <mergeCell ref="B462:B466"/>
+    <mergeCell ref="B467:B471"/>
+    <mergeCell ref="B472:B476"/>
+    <mergeCell ref="B477:B481"/>
+    <mergeCell ref="B482:B486"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
